--- a/Project/results_hammouche_lesh.xlsx
+++ b/Project/results_hammouche_lesh.xlsx
@@ -13,7 +13,3169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6396" uniqueCount="6324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="7378">
+  <si>
+    <t>final_  1</t>
+  </si>
+  <si>
+    <t>final_  2</t>
+  </si>
+  <si>
+    <t>final_  3</t>
+  </si>
+  <si>
+    <t>final_  4</t>
+  </si>
+  <si>
+    <t>final_  5</t>
+  </si>
+  <si>
+    <t>final_  6</t>
+  </si>
+  <si>
+    <t>final_  7</t>
+  </si>
+  <si>
+    <t>final_  8</t>
+  </si>
+  <si>
+    <t>final_  9</t>
+  </si>
+  <si>
+    <t>final_ 10</t>
+  </si>
+  <si>
+    <t>final_ 11</t>
+  </si>
+  <si>
+    <t>final_ 12</t>
+  </si>
+  <si>
+    <t>final_ 13</t>
+  </si>
+  <si>
+    <t>final_ 14</t>
+  </si>
+  <si>
+    <t>final_ 15</t>
+  </si>
+  <si>
+    <t>final_ 16</t>
+  </si>
+  <si>
+    <t>final_ 17</t>
+  </si>
+  <si>
+    <t>final_ 18</t>
+  </si>
+  <si>
+    <t>final_ 19</t>
+  </si>
+  <si>
+    <t>final_ 20</t>
+  </si>
+  <si>
+    <t>final_ 21</t>
+  </si>
+  <si>
+    <t>final_ 22</t>
+  </si>
+  <si>
+    <t>final_ 23</t>
+  </si>
+  <si>
+    <t>final_ 24</t>
+  </si>
+  <si>
+    <t>final_ 25</t>
+  </si>
+  <si>
+    <t>final_ 26</t>
+  </si>
+  <si>
+    <t>final_ 27</t>
+  </si>
+  <si>
+    <t>final_ 28</t>
+  </si>
+  <si>
+    <t>final_ 29</t>
+  </si>
+  <si>
+    <t>final_ 30</t>
+  </si>
+  <si>
+    <t>final_ 31</t>
+  </si>
+  <si>
+    <t>final_ 32</t>
+  </si>
+  <si>
+    <t>final_ 33</t>
+  </si>
+  <si>
+    <t>final_ 34</t>
+  </si>
+  <si>
+    <t>final_ 35</t>
+  </si>
+  <si>
+    <t>final_ 36</t>
+  </si>
+  <si>
+    <t>final_ 37</t>
+  </si>
+  <si>
+    <t>final_ 38</t>
+  </si>
+  <si>
+    <t>final_ 39</t>
+  </si>
+  <si>
+    <t>final_ 40</t>
+  </si>
+  <si>
+    <t>final_ 41</t>
+  </si>
+  <si>
+    <t>final_ 42</t>
+  </si>
+  <si>
+    <t>final_ 43</t>
+  </si>
+  <si>
+    <t>final_ 44</t>
+  </si>
+  <si>
+    <t>final_ 45</t>
+  </si>
+  <si>
+    <t>final_ 46</t>
+  </si>
+  <si>
+    <t>final_ 47</t>
+  </si>
+  <si>
+    <t>final_ 48</t>
+  </si>
+  <si>
+    <t>final_ 49</t>
+  </si>
+  <si>
+    <t>final_ 50</t>
+  </si>
+  <si>
+    <t>final_ 51</t>
+  </si>
+  <si>
+    <t>final_ 52</t>
+  </si>
+  <si>
+    <t>final_ 53</t>
+  </si>
+  <si>
+    <t>final_ 54</t>
+  </si>
+  <si>
+    <t>final_ 55</t>
+  </si>
+  <si>
+    <t>final_ 56</t>
+  </si>
+  <si>
+    <t>final_ 57</t>
+  </si>
+  <si>
+    <t>final_ 58</t>
+  </si>
+  <si>
+    <t>final_ 59</t>
+  </si>
+  <si>
+    <t>final_ 60</t>
+  </si>
+  <si>
+    <t>final_ 61</t>
+  </si>
+  <si>
+    <t>final_ 62</t>
+  </si>
+  <si>
+    <t>final_ 63</t>
+  </si>
+  <si>
+    <t>final_ 64</t>
+  </si>
+  <si>
+    <t>final_ 65</t>
+  </si>
+  <si>
+    <t>final_ 66</t>
+  </si>
+  <si>
+    <t>final_ 67</t>
+  </si>
+  <si>
+    <t>final_ 68</t>
+  </si>
+  <si>
+    <t>final_ 69</t>
+  </si>
+  <si>
+    <t>final_ 70</t>
+  </si>
+  <si>
+    <t>final_ 71</t>
+  </si>
+  <si>
+    <t>final_ 72</t>
+  </si>
+  <si>
+    <t>final_ 73</t>
+  </si>
+  <si>
+    <t>final_ 74</t>
+  </si>
+  <si>
+    <t>final_ 75</t>
+  </si>
+  <si>
+    <t>final_ 76</t>
+  </si>
+  <si>
+    <t>final_ 77</t>
+  </si>
+  <si>
+    <t>final_ 78</t>
+  </si>
+  <si>
+    <t>final_ 79</t>
+  </si>
+  <si>
+    <t>final_ 80</t>
+  </si>
+  <si>
+    <t>final_ 81</t>
+  </si>
+  <si>
+    <t>final_ 82</t>
+  </si>
+  <si>
+    <t>final_ 83</t>
+  </si>
+  <si>
+    <t>final_ 84</t>
+  </si>
+  <si>
+    <t>final_ 85</t>
+  </si>
+  <si>
+    <t>final_ 86</t>
+  </si>
+  <si>
+    <t>final_ 87</t>
+  </si>
+  <si>
+    <t>final_ 88</t>
+  </si>
+  <si>
+    <t>final_ 89</t>
+  </si>
+  <si>
+    <t>final_ 90</t>
+  </si>
+  <si>
+    <t>final_ 91</t>
+  </si>
+  <si>
+    <t>final_ 92</t>
+  </si>
+  <si>
+    <t>final_ 93</t>
+  </si>
+  <si>
+    <t>final_ 94</t>
+  </si>
+  <si>
+    <t>final_ 95</t>
+  </si>
+  <si>
+    <t>final_ 96</t>
+  </si>
+  <si>
+    <t>final_ 97</t>
+  </si>
+  <si>
+    <t>final_ 98</t>
+  </si>
+  <si>
+    <t>final_ 99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>final_513</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>final_6</t>
+  </si>
+  <si>
+    <t>final_7</t>
+  </si>
+  <si>
+    <t>final_8</t>
+  </si>
+  <si>
+    <t>final_9</t>
+  </si>
+  <si>
+    <t>final_10</t>
+  </si>
+  <si>
+    <t>final_11</t>
+  </si>
+  <si>
+    <t>final_12</t>
+  </si>
+  <si>
+    <t>final_13</t>
+  </si>
+  <si>
+    <t>final_14</t>
+  </si>
+  <si>
+    <t>final_15</t>
+  </si>
+  <si>
+    <t>final_16</t>
+  </si>
+  <si>
+    <t>final_17</t>
+  </si>
+  <si>
+    <t>final_18</t>
+  </si>
+  <si>
+    <t>final_19</t>
+  </si>
+  <si>
+    <t>final_20</t>
+  </si>
+  <si>
+    <t>final_21</t>
+  </si>
+  <si>
+    <t>final_22</t>
+  </si>
+  <si>
+    <t>final_23</t>
+  </si>
+  <si>
+    <t>final_24</t>
+  </si>
+  <si>
+    <t>final_25</t>
+  </si>
+  <si>
+    <t>final_26</t>
+  </si>
+  <si>
+    <t>final_27</t>
+  </si>
+  <si>
+    <t>final_28</t>
+  </si>
+  <si>
+    <t>final_29</t>
+  </si>
+  <si>
+    <t>final_30</t>
+  </si>
+  <si>
+    <t>final_31</t>
+  </si>
+  <si>
+    <t>final_32</t>
+  </si>
+  <si>
+    <t>final_33</t>
+  </si>
+  <si>
+    <t>final_34</t>
+  </si>
+  <si>
+    <t>final_35</t>
+  </si>
+  <si>
+    <t>final_36</t>
+  </si>
+  <si>
+    <t>final_37</t>
+  </si>
+  <si>
+    <t>final_38</t>
+  </si>
+  <si>
+    <t>final_39</t>
+  </si>
+  <si>
+    <t>final_40</t>
+  </si>
+  <si>
+    <t>final_41</t>
+  </si>
+  <si>
+    <t>final_42</t>
+  </si>
+  <si>
+    <t>final_43</t>
+  </si>
+  <si>
+    <t>final_44</t>
+  </si>
+  <si>
+    <t>final_45</t>
+  </si>
+  <si>
+    <t>final_46</t>
+  </si>
+  <si>
+    <t>final_47</t>
+  </si>
+  <si>
+    <t>final_48</t>
+  </si>
+  <si>
+    <t>final_49</t>
+  </si>
+  <si>
+    <t>final_50</t>
+  </si>
+  <si>
+    <t>final_51</t>
+  </si>
+  <si>
+    <t>final_52</t>
+  </si>
+  <si>
+    <t>final_53</t>
+  </si>
+  <si>
+    <t>final_54</t>
+  </si>
+  <si>
+    <t>final_55</t>
+  </si>
+  <si>
+    <t>final_56</t>
+  </si>
+  <si>
+    <t>final_57</t>
+  </si>
+  <si>
+    <t>final_58</t>
+  </si>
+  <si>
+    <t>final_59</t>
+  </si>
+  <si>
+    <t>final_60</t>
+  </si>
+  <si>
+    <t>final_61</t>
+  </si>
+  <si>
+    <t>final_62</t>
+  </si>
+  <si>
+    <t>final_63</t>
+  </si>
+  <si>
+    <t>final_64</t>
+  </si>
+  <si>
+    <t>final_65</t>
+  </si>
+  <si>
+    <t>final_66</t>
+  </si>
+  <si>
+    <t>final_67</t>
+  </si>
+  <si>
+    <t>final_68</t>
+  </si>
+  <si>
+    <t>final_69</t>
+  </si>
+  <si>
+    <t>final_70</t>
+  </si>
+  <si>
+    <t>final_71</t>
+  </si>
+  <si>
+    <t>final_72</t>
+  </si>
+  <si>
+    <t>final_73</t>
+  </si>
+  <si>
+    <t>final_74</t>
+  </si>
+  <si>
+    <t>final_75</t>
+  </si>
+  <si>
+    <t>final_76</t>
+  </si>
+  <si>
+    <t>final_77</t>
+  </si>
+  <si>
+    <t>final_78</t>
+  </si>
+  <si>
+    <t>final_79</t>
+  </si>
+  <si>
+    <t>final_80</t>
+  </si>
+  <si>
+    <t>final_81</t>
+  </si>
+  <si>
+    <t>final_82</t>
+  </si>
+  <si>
+    <t>final_83</t>
+  </si>
+  <si>
+    <t>final_84</t>
+  </si>
+  <si>
+    <t>final_85</t>
+  </si>
+  <si>
+    <t>final_86</t>
+  </si>
+  <si>
+    <t>final_87</t>
+  </si>
+  <si>
+    <t>final_88</t>
+  </si>
+  <si>
+    <t>final_89</t>
+  </si>
+  <si>
+    <t>final_90</t>
+  </si>
+  <si>
+    <t>final_91</t>
+  </si>
+  <si>
+    <t>final_92</t>
+  </si>
+  <si>
+    <t>final_93</t>
+  </si>
+  <si>
+    <t>final_94</t>
+  </si>
+  <si>
+    <t>final_95</t>
+  </si>
+  <si>
+    <t>final_96</t>
+  </si>
+  <si>
+    <t>final_97</t>
+  </si>
+  <si>
+    <t>final_98</t>
+  </si>
+  <si>
+    <t>final_99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
   <si>
     <t>final_  1</t>
   </si>
@@ -19005,7 +22167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -19025,11 +22187,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -19043,6 +22207,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19572,1543 +22738,1543 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5797</v>
+        <v>6851</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5798</v>
+        <v>6852</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5799</v>
+        <v>6853</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5800</v>
+        <v>6854</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5801</v>
+        <v>6855</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5802</v>
+        <v>6856</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5803</v>
+        <v>6857</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5804</v>
+        <v>6858</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5805</v>
+        <v>6859</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5806</v>
+        <v>6860</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5807</v>
+        <v>6861</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5808</v>
+        <v>6862</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5809</v>
+        <v>6863</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5810</v>
+        <v>6864</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5811</v>
+        <v>6865</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5812</v>
+        <v>6866</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5813</v>
+        <v>6867</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5814</v>
+        <v>6868</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5815</v>
+        <v>6869</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5816</v>
+        <v>6870</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5817</v>
+        <v>6871</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5818</v>
+        <v>6872</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5819</v>
+        <v>6873</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5820</v>
+        <v>6874</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5821</v>
+        <v>6875</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5822</v>
+        <v>6876</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5823</v>
+        <v>6877</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5824</v>
+        <v>6878</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5825</v>
+        <v>6879</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5826</v>
+        <v>6880</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5827</v>
+        <v>6881</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5828</v>
+        <v>6882</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5829</v>
+        <v>6883</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5830</v>
+        <v>6884</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5831</v>
+        <v>6885</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5832</v>
+        <v>6886</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5833</v>
+        <v>6887</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5834</v>
+        <v>6888</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>5835</v>
+        <v>6889</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>5836</v>
+        <v>6890</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>5837</v>
+        <v>6891</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>5838</v>
+        <v>6892</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>5839</v>
+        <v>6893</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>5840</v>
+        <v>6894</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>5841</v>
+        <v>6895</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>5842</v>
+        <v>6896</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>5843</v>
+        <v>6897</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>5844</v>
+        <v>6898</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>5845</v>
+        <v>6899</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>5846</v>
+        <v>6900</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>5847</v>
+        <v>6901</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>5848</v>
+        <v>6902</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>5849</v>
+        <v>6903</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>5850</v>
+        <v>6904</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>5851</v>
+        <v>6905</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>5852</v>
+        <v>6906</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>5853</v>
+        <v>6907</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>5854</v>
+        <v>6908</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>5855</v>
+        <v>6909</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>5856</v>
+        <v>6910</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>5857</v>
+        <v>6911</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>5858</v>
+        <v>6912</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>5859</v>
+        <v>6913</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>5860</v>
+        <v>6914</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>5861</v>
+        <v>6915</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>5862</v>
+        <v>6916</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>5863</v>
+        <v>6917</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>5864</v>
+        <v>6918</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>5865</v>
+        <v>6919</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>5866</v>
+        <v>6920</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>5867</v>
+        <v>6921</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>5868</v>
+        <v>6922</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>5869</v>
+        <v>6923</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>5870</v>
+        <v>6924</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>5871</v>
+        <v>6925</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>5872</v>
+        <v>6926</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>5873</v>
+        <v>6927</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>5874</v>
+        <v>6928</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>5875</v>
+        <v>6929</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>5876</v>
+        <v>6930</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>5877</v>
+        <v>6931</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>5878</v>
+        <v>6932</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>5879</v>
+        <v>6933</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>5880</v>
+        <v>6934</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>5881</v>
+        <v>6935</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>5882</v>
+        <v>6936</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>5883</v>
+        <v>6937</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>5884</v>
+        <v>6938</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>5885</v>
+        <v>6939</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>5886</v>
+        <v>6940</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>5887</v>
+        <v>6941</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>5888</v>
+        <v>6942</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>5889</v>
+        <v>6943</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>5890</v>
+        <v>6944</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>5891</v>
+        <v>6945</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>5892</v>
+        <v>6946</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>5893</v>
+        <v>6947</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>5894</v>
+        <v>6948</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>5895</v>
+        <v>6949</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>5896</v>
+        <v>6950</v>
       </c>
       <c r="CW1" s="0" t="s">
-        <v>5897</v>
+        <v>6951</v>
       </c>
       <c r="CX1" s="0" t="s">
-        <v>5898</v>
+        <v>6952</v>
       </c>
       <c r="CY1" s="0" t="s">
-        <v>5899</v>
+        <v>6953</v>
       </c>
       <c r="CZ1" s="0" t="s">
-        <v>5900</v>
+        <v>6954</v>
       </c>
       <c r="DA1" s="0" t="s">
-        <v>5901</v>
+        <v>6955</v>
       </c>
       <c r="DB1" s="0" t="s">
-        <v>5902</v>
+        <v>6956</v>
       </c>
       <c r="DC1" s="0" t="s">
-        <v>5903</v>
+        <v>6957</v>
       </c>
       <c r="DD1" s="0" t="s">
-        <v>5904</v>
+        <v>6958</v>
       </c>
       <c r="DE1" s="0" t="s">
-        <v>5905</v>
+        <v>6959</v>
       </c>
       <c r="DF1" s="0" t="s">
-        <v>5906</v>
+        <v>6960</v>
       </c>
       <c r="DG1" s="0" t="s">
-        <v>5907</v>
+        <v>6961</v>
       </c>
       <c r="DH1" s="0" t="s">
-        <v>5908</v>
+        <v>6962</v>
       </c>
       <c r="DI1" s="0" t="s">
-        <v>5909</v>
+        <v>6963</v>
       </c>
       <c r="DJ1" s="0" t="s">
-        <v>5910</v>
+        <v>6964</v>
       </c>
       <c r="DK1" s="0" t="s">
-        <v>5911</v>
+        <v>6965</v>
       </c>
       <c r="DL1" s="0" t="s">
-        <v>5912</v>
+        <v>6966</v>
       </c>
       <c r="DM1" s="0" t="s">
-        <v>5913</v>
+        <v>6967</v>
       </c>
       <c r="DN1" s="0" t="s">
-        <v>5914</v>
+        <v>6968</v>
       </c>
       <c r="DO1" s="0" t="s">
-        <v>5915</v>
+        <v>6969</v>
       </c>
       <c r="DP1" s="0" t="s">
-        <v>5916</v>
+        <v>6970</v>
       </c>
       <c r="DQ1" s="0" t="s">
-        <v>5917</v>
+        <v>6971</v>
       </c>
       <c r="DR1" s="0" t="s">
-        <v>5918</v>
+        <v>6972</v>
       </c>
       <c r="DS1" s="0" t="s">
-        <v>5919</v>
+        <v>6973</v>
       </c>
       <c r="DT1" s="0" t="s">
-        <v>5920</v>
+        <v>6974</v>
       </c>
       <c r="DU1" s="0" t="s">
-        <v>5921</v>
+        <v>6975</v>
       </c>
       <c r="DV1" s="0" t="s">
-        <v>5922</v>
+        <v>6976</v>
       </c>
       <c r="DW1" s="0" t="s">
-        <v>5923</v>
+        <v>6977</v>
       </c>
       <c r="DX1" s="0" t="s">
-        <v>5924</v>
+        <v>6978</v>
       </c>
       <c r="DY1" s="0" t="s">
-        <v>5925</v>
+        <v>6979</v>
       </c>
       <c r="DZ1" s="0" t="s">
-        <v>5926</v>
+        <v>6980</v>
       </c>
       <c r="EA1" s="0" t="s">
-        <v>5927</v>
+        <v>6981</v>
       </c>
       <c r="EB1" s="0" t="s">
-        <v>5928</v>
+        <v>6982</v>
       </c>
       <c r="EC1" s="0" t="s">
-        <v>5929</v>
+        <v>6983</v>
       </c>
       <c r="ED1" s="0" t="s">
-        <v>5930</v>
+        <v>6984</v>
       </c>
       <c r="EE1" s="0" t="s">
-        <v>5931</v>
+        <v>6985</v>
       </c>
       <c r="EF1" s="0" t="s">
-        <v>5932</v>
+        <v>6986</v>
       </c>
       <c r="EG1" s="0" t="s">
-        <v>5933</v>
+        <v>6987</v>
       </c>
       <c r="EH1" s="0" t="s">
-        <v>5934</v>
+        <v>6988</v>
       </c>
       <c r="EI1" s="0" t="s">
-        <v>5935</v>
+        <v>6989</v>
       </c>
       <c r="EJ1" s="0" t="s">
-        <v>5936</v>
+        <v>6990</v>
       </c>
       <c r="EK1" s="0" t="s">
-        <v>5937</v>
+        <v>6991</v>
       </c>
       <c r="EL1" s="0" t="s">
-        <v>5938</v>
+        <v>6992</v>
       </c>
       <c r="EM1" s="0" t="s">
-        <v>5939</v>
+        <v>6993</v>
       </c>
       <c r="EN1" s="0" t="s">
-        <v>5940</v>
+        <v>6994</v>
       </c>
       <c r="EO1" s="0" t="s">
-        <v>5941</v>
+        <v>6995</v>
       </c>
       <c r="EP1" s="0" t="s">
-        <v>5942</v>
+        <v>6996</v>
       </c>
       <c r="EQ1" s="0" t="s">
-        <v>5943</v>
+        <v>6997</v>
       </c>
       <c r="ER1" s="0" t="s">
-        <v>5944</v>
+        <v>6998</v>
       </c>
       <c r="ES1" s="0" t="s">
-        <v>5945</v>
+        <v>6999</v>
       </c>
       <c r="ET1" s="0" t="s">
-        <v>5946</v>
+        <v>7000</v>
       </c>
       <c r="EU1" s="0" t="s">
-        <v>5947</v>
+        <v>7001</v>
       </c>
       <c r="EV1" s="0" t="s">
-        <v>5948</v>
+        <v>7002</v>
       </c>
       <c r="EW1" s="0" t="s">
-        <v>5949</v>
+        <v>7003</v>
       </c>
       <c r="EX1" s="0" t="s">
-        <v>5950</v>
+        <v>7004</v>
       </c>
       <c r="EY1" s="0" t="s">
-        <v>5951</v>
+        <v>7005</v>
       </c>
       <c r="EZ1" s="0" t="s">
-        <v>5952</v>
+        <v>7006</v>
       </c>
       <c r="FA1" s="0" t="s">
-        <v>5953</v>
+        <v>7007</v>
       </c>
       <c r="FB1" s="0" t="s">
-        <v>5954</v>
+        <v>7008</v>
       </c>
       <c r="FC1" s="0" t="s">
-        <v>5955</v>
+        <v>7009</v>
       </c>
       <c r="FD1" s="0" t="s">
-        <v>5956</v>
+        <v>7010</v>
       </c>
       <c r="FE1" s="0" t="s">
-        <v>5957</v>
+        <v>7011</v>
       </c>
       <c r="FF1" s="0" t="s">
-        <v>5958</v>
+        <v>7012</v>
       </c>
       <c r="FG1" s="0" t="s">
-        <v>5959</v>
+        <v>7013</v>
       </c>
       <c r="FH1" s="0" t="s">
-        <v>5960</v>
+        <v>7014</v>
       </c>
       <c r="FI1" s="0" t="s">
-        <v>5961</v>
+        <v>7015</v>
       </c>
       <c r="FJ1" s="0" t="s">
-        <v>5962</v>
+        <v>7016</v>
       </c>
       <c r="FK1" s="0" t="s">
-        <v>5963</v>
+        <v>7017</v>
       </c>
       <c r="FL1" s="0" t="s">
-        <v>5964</v>
+        <v>7018</v>
       </c>
       <c r="FM1" s="0" t="s">
-        <v>5965</v>
+        <v>7019</v>
       </c>
       <c r="FN1" s="0" t="s">
-        <v>5966</v>
+        <v>7020</v>
       </c>
       <c r="FO1" s="0" t="s">
-        <v>5967</v>
+        <v>7021</v>
       </c>
       <c r="FP1" s="0" t="s">
-        <v>5968</v>
+        <v>7022</v>
       </c>
       <c r="FQ1" s="0" t="s">
-        <v>5969</v>
+        <v>7023</v>
       </c>
       <c r="FR1" s="0" t="s">
-        <v>5970</v>
+        <v>7024</v>
       </c>
       <c r="FS1" s="0" t="s">
-        <v>5971</v>
+        <v>7025</v>
       </c>
       <c r="FT1" s="0" t="s">
-        <v>5972</v>
+        <v>7026</v>
       </c>
       <c r="FU1" s="0" t="s">
-        <v>5973</v>
+        <v>7027</v>
       </c>
       <c r="FV1" s="0" t="s">
-        <v>5974</v>
+        <v>7028</v>
       </c>
       <c r="FW1" s="0" t="s">
-        <v>5975</v>
+        <v>7029</v>
       </c>
       <c r="FX1" s="0" t="s">
-        <v>5976</v>
+        <v>7030</v>
       </c>
       <c r="FY1" s="0" t="s">
-        <v>5977</v>
+        <v>7031</v>
       </c>
       <c r="FZ1" s="0" t="s">
-        <v>5978</v>
+        <v>7032</v>
       </c>
       <c r="GA1" s="0" t="s">
-        <v>5979</v>
+        <v>7033</v>
       </c>
       <c r="GB1" s="0" t="s">
-        <v>5980</v>
+        <v>7034</v>
       </c>
       <c r="GC1" s="0" t="s">
-        <v>5981</v>
+        <v>7035</v>
       </c>
       <c r="GD1" s="0" t="s">
-        <v>5982</v>
+        <v>7036</v>
       </c>
       <c r="GE1" s="0" t="s">
-        <v>5983</v>
+        <v>7037</v>
       </c>
       <c r="GF1" s="0" t="s">
-        <v>5984</v>
+        <v>7038</v>
       </c>
       <c r="GG1" s="0" t="s">
-        <v>5985</v>
+        <v>7039</v>
       </c>
       <c r="GH1" s="0" t="s">
-        <v>5986</v>
+        <v>7040</v>
       </c>
       <c r="GI1" s="0" t="s">
-        <v>5987</v>
+        <v>7041</v>
       </c>
       <c r="GJ1" s="0" t="s">
-        <v>5988</v>
+        <v>7042</v>
       </c>
       <c r="GK1" s="0" t="s">
-        <v>5989</v>
+        <v>7043</v>
       </c>
       <c r="GL1" s="0" t="s">
-        <v>5990</v>
+        <v>7044</v>
       </c>
       <c r="GM1" s="0" t="s">
-        <v>5991</v>
+        <v>7045</v>
       </c>
       <c r="GN1" s="0" t="s">
-        <v>5992</v>
+        <v>7046</v>
       </c>
       <c r="GO1" s="0" t="s">
-        <v>5993</v>
+        <v>7047</v>
       </c>
       <c r="GP1" s="0" t="s">
-        <v>5994</v>
+        <v>7048</v>
       </c>
       <c r="GQ1" s="0" t="s">
-        <v>5995</v>
+        <v>7049</v>
       </c>
       <c r="GR1" s="0" t="s">
-        <v>5996</v>
+        <v>7050</v>
       </c>
       <c r="GS1" s="0" t="s">
-        <v>5997</v>
+        <v>7051</v>
       </c>
       <c r="GT1" s="0" t="s">
-        <v>5998</v>
+        <v>7052</v>
       </c>
       <c r="GU1" s="0" t="s">
-        <v>5999</v>
+        <v>7053</v>
       </c>
       <c r="GV1" s="0" t="s">
-        <v>6000</v>
+        <v>7054</v>
       </c>
       <c r="GW1" s="0" t="s">
-        <v>6001</v>
+        <v>7055</v>
       </c>
       <c r="GX1" s="0" t="s">
-        <v>6002</v>
+        <v>7056</v>
       </c>
       <c r="GY1" s="0" t="s">
-        <v>6003</v>
+        <v>7057</v>
       </c>
       <c r="GZ1" s="0" t="s">
-        <v>6004</v>
+        <v>7058</v>
       </c>
       <c r="HA1" s="0" t="s">
-        <v>6005</v>
+        <v>7059</v>
       </c>
       <c r="HB1" s="0" t="s">
-        <v>6006</v>
+        <v>7060</v>
       </c>
       <c r="HC1" s="0" t="s">
-        <v>6007</v>
+        <v>7061</v>
       </c>
       <c r="HD1" s="0" t="s">
-        <v>6008</v>
+        <v>7062</v>
       </c>
       <c r="HE1" s="0" t="s">
-        <v>6009</v>
+        <v>7063</v>
       </c>
       <c r="HF1" s="0" t="s">
-        <v>6010</v>
+        <v>7064</v>
       </c>
       <c r="HG1" s="0" t="s">
-        <v>6011</v>
+        <v>7065</v>
       </c>
       <c r="HH1" s="0" t="s">
-        <v>6012</v>
+        <v>7066</v>
       </c>
       <c r="HI1" s="0" t="s">
-        <v>6013</v>
+        <v>7067</v>
       </c>
       <c r="HJ1" s="0" t="s">
-        <v>6014</v>
+        <v>7068</v>
       </c>
       <c r="HK1" s="0" t="s">
-        <v>6015</v>
+        <v>7069</v>
       </c>
       <c r="HL1" s="0" t="s">
-        <v>6016</v>
+        <v>7070</v>
       </c>
       <c r="HM1" s="0" t="s">
-        <v>6017</v>
+        <v>7071</v>
       </c>
       <c r="HN1" s="0" t="s">
-        <v>6018</v>
+        <v>7072</v>
       </c>
       <c r="HO1" s="0" t="s">
-        <v>6019</v>
+        <v>7073</v>
       </c>
       <c r="HP1" s="0" t="s">
-        <v>6020</v>
+        <v>7074</v>
       </c>
       <c r="HQ1" s="0" t="s">
-        <v>6021</v>
+        <v>7075</v>
       </c>
       <c r="HR1" s="0" t="s">
-        <v>6022</v>
+        <v>7076</v>
       </c>
       <c r="HS1" s="0" t="s">
-        <v>6023</v>
+        <v>7077</v>
       </c>
       <c r="HT1" s="0" t="s">
-        <v>6024</v>
+        <v>7078</v>
       </c>
       <c r="HU1" s="0" t="s">
-        <v>6025</v>
+        <v>7079</v>
       </c>
       <c r="HV1" s="0" t="s">
-        <v>6026</v>
+        <v>7080</v>
       </c>
       <c r="HW1" s="0" t="s">
-        <v>6027</v>
+        <v>7081</v>
       </c>
       <c r="HX1" s="0" t="s">
-        <v>6028</v>
+        <v>7082</v>
       </c>
       <c r="HY1" s="0" t="s">
-        <v>6029</v>
+        <v>7083</v>
       </c>
       <c r="HZ1" s="0" t="s">
-        <v>6030</v>
+        <v>7084</v>
       </c>
       <c r="IA1" s="0" t="s">
-        <v>6031</v>
+        <v>7085</v>
       </c>
       <c r="IB1" s="0" t="s">
-        <v>6032</v>
+        <v>7086</v>
       </c>
       <c r="IC1" s="0" t="s">
-        <v>6033</v>
+        <v>7087</v>
       </c>
       <c r="ID1" s="0" t="s">
-        <v>6034</v>
+        <v>7088</v>
       </c>
       <c r="IE1" s="0" t="s">
-        <v>6035</v>
+        <v>7089</v>
       </c>
       <c r="IF1" s="0" t="s">
-        <v>6036</v>
+        <v>7090</v>
       </c>
       <c r="IG1" s="0" t="s">
-        <v>6037</v>
+        <v>7091</v>
       </c>
       <c r="IH1" s="0" t="s">
-        <v>6038</v>
+        <v>7092</v>
       </c>
       <c r="II1" s="0" t="s">
-        <v>6039</v>
+        <v>7093</v>
       </c>
       <c r="IJ1" s="0" t="s">
-        <v>6040</v>
+        <v>7094</v>
       </c>
       <c r="IK1" s="0" t="s">
-        <v>6041</v>
+        <v>7095</v>
       </c>
       <c r="IL1" s="0" t="s">
-        <v>6042</v>
+        <v>7096</v>
       </c>
       <c r="IM1" s="0" t="s">
-        <v>6043</v>
+        <v>7097</v>
       </c>
       <c r="IN1" s="0" t="s">
-        <v>6044</v>
+        <v>7098</v>
       </c>
       <c r="IO1" s="0" t="s">
-        <v>6045</v>
+        <v>7099</v>
       </c>
       <c r="IP1" s="0" t="s">
-        <v>6046</v>
+        <v>7100</v>
       </c>
       <c r="IQ1" s="0" t="s">
-        <v>6047</v>
+        <v>7101</v>
       </c>
       <c r="IR1" s="0" t="s">
-        <v>6048</v>
+        <v>7102</v>
       </c>
       <c r="IS1" s="0" t="s">
-        <v>6049</v>
+        <v>7103</v>
       </c>
       <c r="IT1" s="0" t="s">
-        <v>6050</v>
+        <v>7104</v>
       </c>
       <c r="IU1" s="0" t="s">
-        <v>6051</v>
+        <v>7105</v>
       </c>
       <c r="IV1" s="0" t="s">
-        <v>6052</v>
+        <v>7106</v>
       </c>
       <c r="IW1" s="0" t="s">
-        <v>6053</v>
+        <v>7107</v>
       </c>
       <c r="IX1" s="0" t="s">
-        <v>6054</v>
+        <v>7108</v>
       </c>
       <c r="IY1" s="0" t="s">
-        <v>6055</v>
+        <v>7109</v>
       </c>
       <c r="IZ1" s="0" t="s">
-        <v>6056</v>
+        <v>7110</v>
       </c>
       <c r="JA1" s="0" t="s">
-        <v>6057</v>
+        <v>7111</v>
       </c>
       <c r="JB1" s="0" t="s">
-        <v>6058</v>
+        <v>7112</v>
       </c>
       <c r="JC1" s="0" t="s">
-        <v>6059</v>
+        <v>7113</v>
       </c>
       <c r="JD1" s="0" t="s">
-        <v>6060</v>
+        <v>7114</v>
       </c>
       <c r="JE1" s="0" t="s">
-        <v>6061</v>
+        <v>7115</v>
       </c>
       <c r="JF1" s="0" t="s">
-        <v>6062</v>
+        <v>7116</v>
       </c>
       <c r="JG1" s="0" t="s">
-        <v>6063</v>
+        <v>7117</v>
       </c>
       <c r="JH1" s="0" t="s">
-        <v>6064</v>
+        <v>7118</v>
       </c>
       <c r="JI1" s="0" t="s">
-        <v>6065</v>
+        <v>7119</v>
       </c>
       <c r="JJ1" s="0" t="s">
-        <v>6066</v>
+        <v>7120</v>
       </c>
       <c r="JK1" s="0" t="s">
-        <v>6067</v>
+        <v>7121</v>
       </c>
       <c r="JL1" s="0" t="s">
-        <v>6068</v>
+        <v>7122</v>
       </c>
       <c r="JM1" s="0" t="s">
-        <v>6069</v>
+        <v>7123</v>
       </c>
       <c r="JN1" s="0" t="s">
-        <v>6070</v>
+        <v>7124</v>
       </c>
       <c r="JO1" s="0" t="s">
-        <v>6071</v>
+        <v>7125</v>
       </c>
       <c r="JP1" s="0" t="s">
-        <v>6072</v>
+        <v>7126</v>
       </c>
       <c r="JQ1" s="0" t="s">
-        <v>6073</v>
+        <v>7127</v>
       </c>
       <c r="JR1" s="0" t="s">
-        <v>6074</v>
+        <v>7128</v>
       </c>
       <c r="JS1" s="0" t="s">
-        <v>6075</v>
+        <v>7129</v>
       </c>
       <c r="JT1" s="0" t="s">
-        <v>6076</v>
+        <v>7130</v>
       </c>
       <c r="JU1" s="0" t="s">
-        <v>6077</v>
+        <v>7131</v>
       </c>
       <c r="JV1" s="0" t="s">
-        <v>6078</v>
+        <v>7132</v>
       </c>
       <c r="JW1" s="0" t="s">
-        <v>6079</v>
+        <v>7133</v>
       </c>
       <c r="JX1" s="0" t="s">
-        <v>6080</v>
+        <v>7134</v>
       </c>
       <c r="JY1" s="0" t="s">
-        <v>6081</v>
+        <v>7135</v>
       </c>
       <c r="JZ1" s="0" t="s">
-        <v>6082</v>
+        <v>7136</v>
       </c>
       <c r="KA1" s="0" t="s">
-        <v>6083</v>
+        <v>7137</v>
       </c>
       <c r="KB1" s="0" t="s">
-        <v>6084</v>
+        <v>7138</v>
       </c>
       <c r="KC1" s="0" t="s">
-        <v>6085</v>
+        <v>7139</v>
       </c>
       <c r="KD1" s="0" t="s">
-        <v>6086</v>
+        <v>7140</v>
       </c>
       <c r="KE1" s="0" t="s">
-        <v>6087</v>
+        <v>7141</v>
       </c>
       <c r="KF1" s="0" t="s">
-        <v>6088</v>
+        <v>7142</v>
       </c>
       <c r="KG1" s="0" t="s">
-        <v>6089</v>
+        <v>7143</v>
       </c>
       <c r="KH1" s="0" t="s">
-        <v>6090</v>
+        <v>7144</v>
       </c>
       <c r="KI1" s="0" t="s">
-        <v>6091</v>
+        <v>7145</v>
       </c>
       <c r="KJ1" s="0" t="s">
-        <v>6092</v>
+        <v>7146</v>
       </c>
       <c r="KK1" s="0" t="s">
-        <v>6093</v>
+        <v>7147</v>
       </c>
       <c r="KL1" s="0" t="s">
-        <v>6094</v>
+        <v>7148</v>
       </c>
       <c r="KM1" s="0" t="s">
-        <v>6095</v>
+        <v>7149</v>
       </c>
       <c r="KN1" s="0" t="s">
-        <v>6096</v>
+        <v>7150</v>
       </c>
       <c r="KO1" s="0" t="s">
-        <v>6097</v>
+        <v>7151</v>
       </c>
       <c r="KP1" s="0" t="s">
-        <v>6098</v>
+        <v>7152</v>
       </c>
       <c r="KQ1" s="0" t="s">
-        <v>6099</v>
+        <v>7153</v>
       </c>
       <c r="KR1" s="0" t="s">
-        <v>6100</v>
+        <v>7154</v>
       </c>
       <c r="KS1" s="0" t="s">
-        <v>6101</v>
+        <v>7155</v>
       </c>
       <c r="KT1" s="0" t="s">
-        <v>6102</v>
+        <v>7156</v>
       </c>
       <c r="KU1" s="0" t="s">
-        <v>6103</v>
+        <v>7157</v>
       </c>
       <c r="KV1" s="0" t="s">
-        <v>6104</v>
+        <v>7158</v>
       </c>
       <c r="KW1" s="0" t="s">
-        <v>6105</v>
+        <v>7159</v>
       </c>
       <c r="KX1" s="0" t="s">
-        <v>6106</v>
+        <v>7160</v>
       </c>
       <c r="KY1" s="0" t="s">
-        <v>6107</v>
+        <v>7161</v>
       </c>
       <c r="KZ1" s="0" t="s">
-        <v>6108</v>
+        <v>7162</v>
       </c>
       <c r="LA1" s="0" t="s">
-        <v>6109</v>
+        <v>7163</v>
       </c>
       <c r="LB1" s="0" t="s">
-        <v>6110</v>
+        <v>7164</v>
       </c>
       <c r="LC1" s="0" t="s">
-        <v>6111</v>
+        <v>7165</v>
       </c>
       <c r="LD1" s="0" t="s">
-        <v>6112</v>
+        <v>7166</v>
       </c>
       <c r="LE1" s="0" t="s">
-        <v>6113</v>
+        <v>7167</v>
       </c>
       <c r="LF1" s="0" t="s">
-        <v>6114</v>
+        <v>7168</v>
       </c>
       <c r="LG1" s="0" t="s">
-        <v>6115</v>
+        <v>7169</v>
       </c>
       <c r="LH1" s="0" t="s">
-        <v>6116</v>
+        <v>7170</v>
       </c>
       <c r="LI1" s="0" t="s">
-        <v>6117</v>
+        <v>7171</v>
       </c>
       <c r="LJ1" s="0" t="s">
-        <v>6118</v>
+        <v>7172</v>
       </c>
       <c r="LK1" s="0" t="s">
-        <v>6119</v>
+        <v>7173</v>
       </c>
       <c r="LL1" s="0" t="s">
-        <v>6120</v>
+        <v>7174</v>
       </c>
       <c r="LM1" s="0" t="s">
-        <v>6121</v>
+        <v>7175</v>
       </c>
       <c r="LN1" s="0" t="s">
-        <v>6122</v>
+        <v>7176</v>
       </c>
       <c r="LO1" s="0" t="s">
-        <v>6123</v>
+        <v>7177</v>
       </c>
       <c r="LP1" s="0" t="s">
-        <v>6124</v>
+        <v>7178</v>
       </c>
       <c r="LQ1" s="0" t="s">
-        <v>6125</v>
+        <v>7179</v>
       </c>
       <c r="LR1" s="0" t="s">
-        <v>6126</v>
+        <v>7180</v>
       </c>
       <c r="LS1" s="0" t="s">
-        <v>6127</v>
+        <v>7181</v>
       </c>
       <c r="LT1" s="0" t="s">
-        <v>6128</v>
+        <v>7182</v>
       </c>
       <c r="LU1" s="0" t="s">
-        <v>6129</v>
+        <v>7183</v>
       </c>
       <c r="LV1" s="0" t="s">
-        <v>6130</v>
+        <v>7184</v>
       </c>
       <c r="LW1" s="0" t="s">
-        <v>6131</v>
+        <v>7185</v>
       </c>
       <c r="LX1" s="0" t="s">
-        <v>6132</v>
+        <v>7186</v>
       </c>
       <c r="LY1" s="0" t="s">
-        <v>6133</v>
+        <v>7187</v>
       </c>
       <c r="LZ1" s="0" t="s">
-        <v>6134</v>
+        <v>7188</v>
       </c>
       <c r="MA1" s="0" t="s">
-        <v>6135</v>
+        <v>7189</v>
       </c>
       <c r="MB1" s="0" t="s">
-        <v>6136</v>
+        <v>7190</v>
       </c>
       <c r="MC1" s="0" t="s">
-        <v>6137</v>
+        <v>7191</v>
       </c>
       <c r="MD1" s="0" t="s">
-        <v>6138</v>
+        <v>7192</v>
       </c>
       <c r="ME1" s="0" t="s">
-        <v>6139</v>
+        <v>7193</v>
       </c>
       <c r="MF1" s="0" t="s">
-        <v>6140</v>
+        <v>7194</v>
       </c>
       <c r="MG1" s="0" t="s">
-        <v>6141</v>
+        <v>7195</v>
       </c>
       <c r="MH1" s="0" t="s">
-        <v>6142</v>
+        <v>7196</v>
       </c>
       <c r="MI1" s="0" t="s">
-        <v>6143</v>
+        <v>7197</v>
       </c>
       <c r="MJ1" s="0" t="s">
-        <v>6144</v>
+        <v>7198</v>
       </c>
       <c r="MK1" s="0" t="s">
-        <v>6145</v>
+        <v>7199</v>
       </c>
       <c r="ML1" s="0" t="s">
-        <v>6146</v>
+        <v>7200</v>
       </c>
       <c r="MM1" s="0" t="s">
-        <v>6147</v>
+        <v>7201</v>
       </c>
       <c r="MN1" s="0" t="s">
-        <v>6148</v>
+        <v>7202</v>
       </c>
       <c r="MO1" s="0" t="s">
-        <v>6149</v>
+        <v>7203</v>
       </c>
       <c r="MP1" s="0" t="s">
-        <v>6150</v>
+        <v>7204</v>
       </c>
       <c r="MQ1" s="0" t="s">
-        <v>6151</v>
+        <v>7205</v>
       </c>
       <c r="MR1" s="0" t="s">
-        <v>6152</v>
+        <v>7206</v>
       </c>
       <c r="MS1" s="0" t="s">
-        <v>6153</v>
+        <v>7207</v>
       </c>
       <c r="MT1" s="0" t="s">
-        <v>6154</v>
+        <v>7208</v>
       </c>
       <c r="MU1" s="0" t="s">
-        <v>6155</v>
+        <v>7209</v>
       </c>
       <c r="MV1" s="0" t="s">
-        <v>6156</v>
+        <v>7210</v>
       </c>
       <c r="MW1" s="0" t="s">
-        <v>6157</v>
+        <v>7211</v>
       </c>
       <c r="MX1" s="0" t="s">
-        <v>6158</v>
+        <v>7212</v>
       </c>
       <c r="MY1" s="0" t="s">
-        <v>6159</v>
+        <v>7213</v>
       </c>
       <c r="MZ1" s="0" t="s">
-        <v>6160</v>
+        <v>7214</v>
       </c>
       <c r="NA1" s="0" t="s">
-        <v>6161</v>
+        <v>7215</v>
       </c>
       <c r="NB1" s="0" t="s">
-        <v>6162</v>
+        <v>7216</v>
       </c>
       <c r="NC1" s="0" t="s">
-        <v>6163</v>
+        <v>7217</v>
       </c>
       <c r="ND1" s="0" t="s">
-        <v>6164</v>
+        <v>7218</v>
       </c>
       <c r="NE1" s="0" t="s">
-        <v>6165</v>
+        <v>7219</v>
       </c>
       <c r="NF1" s="0" t="s">
-        <v>6166</v>
+        <v>7220</v>
       </c>
       <c r="NG1" s="0" t="s">
-        <v>6167</v>
+        <v>7221</v>
       </c>
       <c r="NH1" s="0" t="s">
-        <v>6168</v>
+        <v>7222</v>
       </c>
       <c r="NI1" s="0" t="s">
-        <v>6169</v>
+        <v>7223</v>
       </c>
       <c r="NJ1" s="0" t="s">
-        <v>6170</v>
+        <v>7224</v>
       </c>
       <c r="NK1" s="0" t="s">
-        <v>6171</v>
+        <v>7225</v>
       </c>
       <c r="NL1" s="0" t="s">
-        <v>6172</v>
+        <v>7226</v>
       </c>
       <c r="NM1" s="0" t="s">
-        <v>6173</v>
+        <v>7227</v>
       </c>
       <c r="NN1" s="0" t="s">
-        <v>6174</v>
+        <v>7228</v>
       </c>
       <c r="NO1" s="0" t="s">
-        <v>6175</v>
+        <v>7229</v>
       </c>
       <c r="NP1" s="0" t="s">
-        <v>6176</v>
+        <v>7230</v>
       </c>
       <c r="NQ1" s="0" t="s">
-        <v>6177</v>
+        <v>7231</v>
       </c>
       <c r="NR1" s="0" t="s">
-        <v>6178</v>
+        <v>7232</v>
       </c>
       <c r="NS1" s="0" t="s">
-        <v>6179</v>
+        <v>7233</v>
       </c>
       <c r="NT1" s="0" t="s">
-        <v>6180</v>
+        <v>7234</v>
       </c>
       <c r="NU1" s="0" t="s">
-        <v>6181</v>
+        <v>7235</v>
       </c>
       <c r="NV1" s="0" t="s">
-        <v>6182</v>
+        <v>7236</v>
       </c>
       <c r="NW1" s="0" t="s">
-        <v>6183</v>
+        <v>7237</v>
       </c>
       <c r="NX1" s="0" t="s">
-        <v>6184</v>
+        <v>7238</v>
       </c>
       <c r="NY1" s="0" t="s">
-        <v>6185</v>
+        <v>7239</v>
       </c>
       <c r="NZ1" s="0" t="s">
-        <v>6186</v>
+        <v>7240</v>
       </c>
       <c r="OA1" s="0" t="s">
-        <v>6187</v>
+        <v>7241</v>
       </c>
       <c r="OB1" s="0" t="s">
-        <v>6188</v>
+        <v>7242</v>
       </c>
       <c r="OC1" s="0" t="s">
-        <v>6189</v>
+        <v>7243</v>
       </c>
       <c r="OD1" s="0" t="s">
-        <v>6190</v>
+        <v>7244</v>
       </c>
       <c r="OE1" s="0" t="s">
-        <v>6191</v>
+        <v>7245</v>
       </c>
       <c r="OF1" s="0" t="s">
-        <v>6192</v>
+        <v>7246</v>
       </c>
       <c r="OG1" s="0" t="s">
-        <v>6193</v>
+        <v>7247</v>
       </c>
       <c r="OH1" s="0" t="s">
-        <v>6194</v>
+        <v>7248</v>
       </c>
       <c r="OI1" s="0" t="s">
-        <v>6195</v>
+        <v>7249</v>
       </c>
       <c r="OJ1" s="0" t="s">
-        <v>6196</v>
+        <v>7250</v>
       </c>
       <c r="OK1" s="0" t="s">
-        <v>6197</v>
+        <v>7251</v>
       </c>
       <c r="OL1" s="0" t="s">
-        <v>6198</v>
+        <v>7252</v>
       </c>
       <c r="OM1" s="0" t="s">
-        <v>6199</v>
+        <v>7253</v>
       </c>
       <c r="ON1" s="0" t="s">
-        <v>6200</v>
+        <v>7254</v>
       </c>
       <c r="OO1" s="0" t="s">
-        <v>6201</v>
+        <v>7255</v>
       </c>
       <c r="OP1" s="0" t="s">
-        <v>6202</v>
+        <v>7256</v>
       </c>
       <c r="OQ1" s="0" t="s">
-        <v>6203</v>
+        <v>7257</v>
       </c>
       <c r="OR1" s="0" t="s">
-        <v>6204</v>
+        <v>7258</v>
       </c>
       <c r="OS1" s="0" t="s">
-        <v>6205</v>
+        <v>7259</v>
       </c>
       <c r="OT1" s="0" t="s">
-        <v>6206</v>
+        <v>7260</v>
       </c>
       <c r="OU1" s="0" t="s">
-        <v>6207</v>
+        <v>7261</v>
       </c>
       <c r="OV1" s="0" t="s">
-        <v>6208</v>
+        <v>7262</v>
       </c>
       <c r="OW1" s="0" t="s">
-        <v>6209</v>
+        <v>7263</v>
       </c>
       <c r="OX1" s="0" t="s">
-        <v>6210</v>
+        <v>7264</v>
       </c>
       <c r="OY1" s="0" t="s">
-        <v>6211</v>
+        <v>7265</v>
       </c>
       <c r="OZ1" s="0" t="s">
-        <v>6212</v>
+        <v>7266</v>
       </c>
       <c r="PA1" s="0" t="s">
-        <v>6213</v>
+        <v>7267</v>
       </c>
       <c r="PB1" s="0" t="s">
-        <v>6214</v>
+        <v>7268</v>
       </c>
       <c r="PC1" s="0" t="s">
-        <v>6215</v>
+        <v>7269</v>
       </c>
       <c r="PD1" s="0" t="s">
-        <v>6216</v>
+        <v>7270</v>
       </c>
       <c r="PE1" s="0" t="s">
-        <v>6217</v>
+        <v>7271</v>
       </c>
       <c r="PF1" s="0" t="s">
-        <v>6218</v>
+        <v>7272</v>
       </c>
       <c r="PG1" s="0" t="s">
-        <v>6219</v>
+        <v>7273</v>
       </c>
       <c r="PH1" s="0" t="s">
-        <v>6220</v>
+        <v>7274</v>
       </c>
       <c r="PI1" s="0" t="s">
-        <v>6221</v>
+        <v>7275</v>
       </c>
       <c r="PJ1" s="0" t="s">
-        <v>6222</v>
+        <v>7276</v>
       </c>
       <c r="PK1" s="0" t="s">
-        <v>6223</v>
+        <v>7277</v>
       </c>
       <c r="PL1" s="0" t="s">
-        <v>6224</v>
+        <v>7278</v>
       </c>
       <c r="PM1" s="0" t="s">
-        <v>6225</v>
+        <v>7279</v>
       </c>
       <c r="PN1" s="0" t="s">
-        <v>6226</v>
+        <v>7280</v>
       </c>
       <c r="PO1" s="0" t="s">
-        <v>6227</v>
+        <v>7281</v>
       </c>
       <c r="PP1" s="0" t="s">
-        <v>6228</v>
+        <v>7282</v>
       </c>
       <c r="PQ1" s="0" t="s">
-        <v>6229</v>
+        <v>7283</v>
       </c>
       <c r="PR1" s="0" t="s">
-        <v>6230</v>
+        <v>7284</v>
       </c>
       <c r="PS1" s="0" t="s">
-        <v>6231</v>
+        <v>7285</v>
       </c>
       <c r="PT1" s="0" t="s">
-        <v>6232</v>
+        <v>7286</v>
       </c>
       <c r="PU1" s="0" t="s">
-        <v>6233</v>
+        <v>7287</v>
       </c>
       <c r="PV1" s="0" t="s">
-        <v>6234</v>
+        <v>7288</v>
       </c>
       <c r="PW1" s="0" t="s">
-        <v>6235</v>
+        <v>7289</v>
       </c>
       <c r="PX1" s="0" t="s">
-        <v>6236</v>
+        <v>7290</v>
       </c>
       <c r="PY1" s="0" t="s">
-        <v>6237</v>
+        <v>7291</v>
       </c>
       <c r="PZ1" s="0" t="s">
-        <v>6238</v>
+        <v>7292</v>
       </c>
       <c r="QA1" s="0" t="s">
-        <v>6239</v>
+        <v>7293</v>
       </c>
       <c r="QB1" s="0" t="s">
-        <v>6240</v>
+        <v>7294</v>
       </c>
       <c r="QC1" s="0" t="s">
-        <v>6241</v>
+        <v>7295</v>
       </c>
       <c r="QD1" s="0" t="s">
-        <v>6242</v>
+        <v>7296</v>
       </c>
       <c r="QE1" s="0" t="s">
-        <v>6243</v>
+        <v>7297</v>
       </c>
       <c r="QF1" s="0" t="s">
-        <v>6244</v>
+        <v>7298</v>
       </c>
       <c r="QG1" s="0" t="s">
-        <v>6245</v>
+        <v>7299</v>
       </c>
       <c r="QH1" s="0" t="s">
-        <v>6246</v>
+        <v>7300</v>
       </c>
       <c r="QI1" s="0" t="s">
-        <v>6247</v>
+        <v>7301</v>
       </c>
       <c r="QJ1" s="0" t="s">
-        <v>6248</v>
+        <v>7302</v>
       </c>
       <c r="QK1" s="0" t="s">
-        <v>6249</v>
+        <v>7303</v>
       </c>
       <c r="QL1" s="0" t="s">
-        <v>6250</v>
+        <v>7304</v>
       </c>
       <c r="QM1" s="0" t="s">
-        <v>6251</v>
+        <v>7305</v>
       </c>
       <c r="QN1" s="0" t="s">
-        <v>6252</v>
+        <v>7306</v>
       </c>
       <c r="QO1" s="0" t="s">
-        <v>6253</v>
+        <v>7307</v>
       </c>
       <c r="QP1" s="0" t="s">
-        <v>6254</v>
+        <v>7308</v>
       </c>
       <c r="QQ1" s="0" t="s">
-        <v>6255</v>
+        <v>7309</v>
       </c>
       <c r="QR1" s="0" t="s">
-        <v>6256</v>
+        <v>7310</v>
       </c>
       <c r="QS1" s="0" t="s">
-        <v>6257</v>
+        <v>7311</v>
       </c>
       <c r="QT1" s="0" t="s">
-        <v>6258</v>
+        <v>7312</v>
       </c>
       <c r="QU1" s="0" t="s">
-        <v>6259</v>
+        <v>7313</v>
       </c>
       <c r="QV1" s="0" t="s">
-        <v>6260</v>
+        <v>7314</v>
       </c>
       <c r="QW1" s="0" t="s">
-        <v>6261</v>
+        <v>7315</v>
       </c>
       <c r="QX1" s="0" t="s">
-        <v>6262</v>
+        <v>7316</v>
       </c>
       <c r="QY1" s="0" t="s">
-        <v>6263</v>
+        <v>7317</v>
       </c>
       <c r="QZ1" s="0" t="s">
-        <v>6264</v>
+        <v>7318</v>
       </c>
       <c r="RA1" s="0" t="s">
-        <v>6265</v>
+        <v>7319</v>
       </c>
       <c r="RB1" s="0" t="s">
-        <v>6266</v>
+        <v>7320</v>
       </c>
       <c r="RC1" s="0" t="s">
-        <v>6267</v>
+        <v>7321</v>
       </c>
       <c r="RD1" s="0" t="s">
-        <v>6268</v>
+        <v>7322</v>
       </c>
       <c r="RE1" s="0" t="s">
-        <v>6269</v>
+        <v>7323</v>
       </c>
       <c r="RF1" s="0" t="s">
-        <v>6270</v>
+        <v>7324</v>
       </c>
       <c r="RG1" s="0" t="s">
-        <v>6271</v>
+        <v>7325</v>
       </c>
       <c r="RH1" s="0" t="s">
-        <v>6272</v>
+        <v>7326</v>
       </c>
       <c r="RI1" s="0" t="s">
-        <v>6273</v>
+        <v>7327</v>
       </c>
       <c r="RJ1" s="0" t="s">
-        <v>6274</v>
+        <v>7328</v>
       </c>
       <c r="RK1" s="0" t="s">
-        <v>6275</v>
+        <v>7329</v>
       </c>
       <c r="RL1" s="0" t="s">
-        <v>6276</v>
+        <v>7330</v>
       </c>
       <c r="RM1" s="0" t="s">
-        <v>6277</v>
+        <v>7331</v>
       </c>
       <c r="RN1" s="0" t="s">
-        <v>6278</v>
+        <v>7332</v>
       </c>
       <c r="RO1" s="0" t="s">
-        <v>6279</v>
+        <v>7333</v>
       </c>
       <c r="RP1" s="0" t="s">
-        <v>6280</v>
+        <v>7334</v>
       </c>
       <c r="RQ1" s="0" t="s">
-        <v>6281</v>
+        <v>7335</v>
       </c>
       <c r="RR1" s="0" t="s">
-        <v>6282</v>
+        <v>7336</v>
       </c>
       <c r="RS1" s="0" t="s">
-        <v>6283</v>
+        <v>7337</v>
       </c>
       <c r="RT1" s="0" t="s">
-        <v>6284</v>
+        <v>7338</v>
       </c>
       <c r="RU1" s="0" t="s">
-        <v>6285</v>
+        <v>7339</v>
       </c>
       <c r="RV1" s="0" t="s">
-        <v>6286</v>
+        <v>7340</v>
       </c>
       <c r="RW1" s="0" t="s">
-        <v>6287</v>
+        <v>7341</v>
       </c>
       <c r="RX1" s="0" t="s">
-        <v>6288</v>
+        <v>7342</v>
       </c>
       <c r="RY1" s="0" t="s">
-        <v>6289</v>
+        <v>7343</v>
       </c>
       <c r="RZ1" s="0" t="s">
-        <v>6290</v>
+        <v>7344</v>
       </c>
       <c r="SA1" s="0" t="s">
-        <v>6291</v>
+        <v>7345</v>
       </c>
       <c r="SB1" s="0" t="s">
-        <v>6292</v>
+        <v>7346</v>
       </c>
       <c r="SC1" s="0" t="s">
-        <v>6293</v>
+        <v>7347</v>
       </c>
       <c r="SD1" s="0" t="s">
-        <v>6294</v>
+        <v>7348</v>
       </c>
       <c r="SE1" s="0" t="s">
-        <v>6295</v>
+        <v>7349</v>
       </c>
       <c r="SF1" s="0" t="s">
-        <v>6296</v>
+        <v>7350</v>
       </c>
       <c r="SG1" s="0" t="s">
-        <v>6297</v>
+        <v>7351</v>
       </c>
       <c r="SH1" s="0" t="s">
-        <v>6298</v>
+        <v>7352</v>
       </c>
       <c r="SI1" s="0" t="s">
-        <v>6299</v>
+        <v>7353</v>
       </c>
       <c r="SJ1" s="0" t="s">
-        <v>6300</v>
+        <v>7354</v>
       </c>
       <c r="SK1" s="0" t="s">
-        <v>6301</v>
+        <v>7355</v>
       </c>
       <c r="SL1" s="0" t="s">
-        <v>6302</v>
+        <v>7356</v>
       </c>
       <c r="SM1" s="0" t="s">
-        <v>6303</v>
+        <v>7357</v>
       </c>
       <c r="SN1" s="0" t="s">
-        <v>6304</v>
+        <v>7358</v>
       </c>
       <c r="SO1" s="0" t="s">
-        <v>6305</v>
+        <v>7359</v>
       </c>
       <c r="SP1" s="0" t="s">
-        <v>6306</v>
+        <v>7360</v>
       </c>
       <c r="SQ1" s="0" t="s">
-        <v>6307</v>
+        <v>7361</v>
       </c>
       <c r="SR1" s="0" t="s">
-        <v>6308</v>
+        <v>7362</v>
       </c>
       <c r="SS1" s="0" t="s">
-        <v>6309</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="2">
@@ -22649,7 +25815,7 @@
         <v>0.0017182849414548781</v>
       </c>
       <c r="SS2" s="0" t="s">
-        <v>6310</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="3">
@@ -24190,7 +27356,7 @@
         <v>0.083081996346907064</v>
       </c>
       <c r="SS3" s="0" t="s">
-        <v>6311</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="4">
@@ -25731,7 +28897,7 @@
         <v>1.3037015881842586e-05</v>
       </c>
       <c r="SS4" s="0" t="s">
-        <v>6311</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="5">
@@ -27272,7 +30438,7 @@
         <v>0.071605245360496533</v>
       </c>
       <c r="SS5" s="0" t="s">
-        <v>6312</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="6">
@@ -28813,7 +31979,7 @@
         <v>0.30676712762187575</v>
       </c>
       <c r="SS6" s="0" t="s">
-        <v>6312</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="7">
@@ -30354,7 +33520,7 @@
         <v>0.013127508822408578</v>
       </c>
       <c r="SS7" s="0" t="s">
-        <v>6313</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="8">
@@ -31895,7 +35061,7 @@
         <v>0.19266718006205874</v>
       </c>
       <c r="SS8" s="0" t="s">
-        <v>6313</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="9">
@@ -33436,7 +36602,7 @@
         <v>0.015991944786008957</v>
       </c>
       <c r="SS9" s="0" t="s">
-        <v>6313</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="10">
@@ -34977,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="SS10" s="0" t="s">
-        <v>6313</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="11">
@@ -36518,7 +39684,7 @@
         <v>0</v>
       </c>
       <c r="SS11" s="0" t="s">
-        <v>6314</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="12">
@@ -38059,7 +41225,7 @@
         <v>0.012854855152174769</v>
       </c>
       <c r="SS12" s="0" t="s">
-        <v>6315</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="13">
@@ -39600,7 +42766,7 @@
         <v>0.00020231576132515882</v>
       </c>
       <c r="SS13" s="0" t="s">
-        <v>6316</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="14">
@@ -41141,7 +44307,7 @@
         <v>0.016711218382466395</v>
       </c>
       <c r="SS14" s="0" t="s">
-        <v>6316</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="15">
@@ -42682,7 +45848,7 @@
         <v>0.0030857264593178741</v>
       </c>
       <c r="SS15" s="0" t="s">
-        <v>6317</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="16">
@@ -44223,7 +47389,7 @@
         <v>0.11689250088670773</v>
       </c>
       <c r="SS16" s="0" t="s">
-        <v>6318</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="17">
@@ -45764,7 +48930,7 @@
         <v>0.00024221293437175681</v>
       </c>
       <c r="SS17" s="0" t="s">
-        <v>6319</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="18">
@@ -47305,7 +50471,7 @@
         <v>0</v>
       </c>
       <c r="SS18" s="0" t="s">
-        <v>6320</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="19">
@@ -48846,7 +52012,7 @@
         <v>0</v>
       </c>
       <c r="SS19" s="0" t="s">
-        <v>6321</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="20">
@@ -50387,7 +53553,7 @@
         <v>0.012319180470045186</v>
       </c>
       <c r="SS20" s="0" t="s">
-        <v>6322</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="21">
@@ -51928,7 +55094,7 @@
         <v>0.0045937090735430168</v>
       </c>
       <c r="SS21" s="0" t="s">
-        <v>6323</v>
+        <v>7377</v>
       </c>
     </row>
   </sheetData>

--- a/Project/results_hammouche_lesh.xlsx
+++ b/Project/results_hammouche_lesh.xlsx
@@ -13,7 +13,6331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="7378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9594" uniqueCount="9486">
+  <si>
+    <t>final_  1</t>
+  </si>
+  <si>
+    <t>final_  2</t>
+  </si>
+  <si>
+    <t>final_  3</t>
+  </si>
+  <si>
+    <t>final_  4</t>
+  </si>
+  <si>
+    <t>final_  5</t>
+  </si>
+  <si>
+    <t>final_  6</t>
+  </si>
+  <si>
+    <t>final_  7</t>
+  </si>
+  <si>
+    <t>final_  8</t>
+  </si>
+  <si>
+    <t>final_  9</t>
+  </si>
+  <si>
+    <t>final_ 10</t>
+  </si>
+  <si>
+    <t>final_ 11</t>
+  </si>
+  <si>
+    <t>final_ 12</t>
+  </si>
+  <si>
+    <t>final_ 13</t>
+  </si>
+  <si>
+    <t>final_ 14</t>
+  </si>
+  <si>
+    <t>final_ 15</t>
+  </si>
+  <si>
+    <t>final_ 16</t>
+  </si>
+  <si>
+    <t>final_ 17</t>
+  </si>
+  <si>
+    <t>final_ 18</t>
+  </si>
+  <si>
+    <t>final_ 19</t>
+  </si>
+  <si>
+    <t>final_ 20</t>
+  </si>
+  <si>
+    <t>final_ 21</t>
+  </si>
+  <si>
+    <t>final_ 22</t>
+  </si>
+  <si>
+    <t>final_ 23</t>
+  </si>
+  <si>
+    <t>final_ 24</t>
+  </si>
+  <si>
+    <t>final_ 25</t>
+  </si>
+  <si>
+    <t>final_ 26</t>
+  </si>
+  <si>
+    <t>final_ 27</t>
+  </si>
+  <si>
+    <t>final_ 28</t>
+  </si>
+  <si>
+    <t>final_ 29</t>
+  </si>
+  <si>
+    <t>final_ 30</t>
+  </si>
+  <si>
+    <t>final_ 31</t>
+  </si>
+  <si>
+    <t>final_ 32</t>
+  </si>
+  <si>
+    <t>final_ 33</t>
+  </si>
+  <si>
+    <t>final_ 34</t>
+  </si>
+  <si>
+    <t>final_ 35</t>
+  </si>
+  <si>
+    <t>final_ 36</t>
+  </si>
+  <si>
+    <t>final_ 37</t>
+  </si>
+  <si>
+    <t>final_ 38</t>
+  </si>
+  <si>
+    <t>final_ 39</t>
+  </si>
+  <si>
+    <t>final_ 40</t>
+  </si>
+  <si>
+    <t>final_ 41</t>
+  </si>
+  <si>
+    <t>final_ 42</t>
+  </si>
+  <si>
+    <t>final_ 43</t>
+  </si>
+  <si>
+    <t>final_ 44</t>
+  </si>
+  <si>
+    <t>final_ 45</t>
+  </si>
+  <si>
+    <t>final_ 46</t>
+  </si>
+  <si>
+    <t>final_ 47</t>
+  </si>
+  <si>
+    <t>final_ 48</t>
+  </si>
+  <si>
+    <t>final_ 49</t>
+  </si>
+  <si>
+    <t>final_ 50</t>
+  </si>
+  <si>
+    <t>final_ 51</t>
+  </si>
+  <si>
+    <t>final_ 52</t>
+  </si>
+  <si>
+    <t>final_ 53</t>
+  </si>
+  <si>
+    <t>final_ 54</t>
+  </si>
+  <si>
+    <t>final_ 55</t>
+  </si>
+  <si>
+    <t>final_ 56</t>
+  </si>
+  <si>
+    <t>final_ 57</t>
+  </si>
+  <si>
+    <t>final_ 58</t>
+  </si>
+  <si>
+    <t>final_ 59</t>
+  </si>
+  <si>
+    <t>final_ 60</t>
+  </si>
+  <si>
+    <t>final_ 61</t>
+  </si>
+  <si>
+    <t>final_ 62</t>
+  </si>
+  <si>
+    <t>final_ 63</t>
+  </si>
+  <si>
+    <t>final_ 64</t>
+  </si>
+  <si>
+    <t>final_ 65</t>
+  </si>
+  <si>
+    <t>final_ 66</t>
+  </si>
+  <si>
+    <t>final_ 67</t>
+  </si>
+  <si>
+    <t>final_ 68</t>
+  </si>
+  <si>
+    <t>final_ 69</t>
+  </si>
+  <si>
+    <t>final_ 70</t>
+  </si>
+  <si>
+    <t>final_ 71</t>
+  </si>
+  <si>
+    <t>final_ 72</t>
+  </si>
+  <si>
+    <t>final_ 73</t>
+  </si>
+  <si>
+    <t>final_ 74</t>
+  </si>
+  <si>
+    <t>final_ 75</t>
+  </si>
+  <si>
+    <t>final_ 76</t>
+  </si>
+  <si>
+    <t>final_ 77</t>
+  </si>
+  <si>
+    <t>final_ 78</t>
+  </si>
+  <si>
+    <t>final_ 79</t>
+  </si>
+  <si>
+    <t>final_ 80</t>
+  </si>
+  <si>
+    <t>final_ 81</t>
+  </si>
+  <si>
+    <t>final_ 82</t>
+  </si>
+  <si>
+    <t>final_ 83</t>
+  </si>
+  <si>
+    <t>final_ 84</t>
+  </si>
+  <si>
+    <t>final_ 85</t>
+  </si>
+  <si>
+    <t>final_ 86</t>
+  </si>
+  <si>
+    <t>final_ 87</t>
+  </si>
+  <si>
+    <t>final_ 88</t>
+  </si>
+  <si>
+    <t>final_ 89</t>
+  </si>
+  <si>
+    <t>final_ 90</t>
+  </si>
+  <si>
+    <t>final_ 91</t>
+  </si>
+  <si>
+    <t>final_ 92</t>
+  </si>
+  <si>
+    <t>final_ 93</t>
+  </si>
+  <si>
+    <t>final_ 94</t>
+  </si>
+  <si>
+    <t>final_ 95</t>
+  </si>
+  <si>
+    <t>final_ 96</t>
+  </si>
+  <si>
+    <t>final_ 97</t>
+  </si>
+  <si>
+    <t>final_ 98</t>
+  </si>
+  <si>
+    <t>final_ 99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>final_513</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>final_6</t>
+  </si>
+  <si>
+    <t>final_7</t>
+  </si>
+  <si>
+    <t>final_8</t>
+  </si>
+  <si>
+    <t>final_9</t>
+  </si>
+  <si>
+    <t>final_10</t>
+  </si>
+  <si>
+    <t>final_11</t>
+  </si>
+  <si>
+    <t>final_12</t>
+  </si>
+  <si>
+    <t>final_13</t>
+  </si>
+  <si>
+    <t>final_14</t>
+  </si>
+  <si>
+    <t>final_15</t>
+  </si>
+  <si>
+    <t>final_16</t>
+  </si>
+  <si>
+    <t>final_17</t>
+  </si>
+  <si>
+    <t>final_18</t>
+  </si>
+  <si>
+    <t>final_19</t>
+  </si>
+  <si>
+    <t>final_20</t>
+  </si>
+  <si>
+    <t>final_21</t>
+  </si>
+  <si>
+    <t>final_22</t>
+  </si>
+  <si>
+    <t>final_23</t>
+  </si>
+  <si>
+    <t>final_24</t>
+  </si>
+  <si>
+    <t>final_25</t>
+  </si>
+  <si>
+    <t>final_26</t>
+  </si>
+  <si>
+    <t>final_27</t>
+  </si>
+  <si>
+    <t>final_28</t>
+  </si>
+  <si>
+    <t>final_29</t>
+  </si>
+  <si>
+    <t>final_30</t>
+  </si>
+  <si>
+    <t>final_31</t>
+  </si>
+  <si>
+    <t>final_32</t>
+  </si>
+  <si>
+    <t>final_33</t>
+  </si>
+  <si>
+    <t>final_34</t>
+  </si>
+  <si>
+    <t>final_35</t>
+  </si>
+  <si>
+    <t>final_36</t>
+  </si>
+  <si>
+    <t>final_37</t>
+  </si>
+  <si>
+    <t>final_38</t>
+  </si>
+  <si>
+    <t>final_39</t>
+  </si>
+  <si>
+    <t>final_40</t>
+  </si>
+  <si>
+    <t>final_41</t>
+  </si>
+  <si>
+    <t>final_42</t>
+  </si>
+  <si>
+    <t>final_43</t>
+  </si>
+  <si>
+    <t>final_44</t>
+  </si>
+  <si>
+    <t>final_45</t>
+  </si>
+  <si>
+    <t>final_46</t>
+  </si>
+  <si>
+    <t>final_47</t>
+  </si>
+  <si>
+    <t>final_48</t>
+  </si>
+  <si>
+    <t>final_49</t>
+  </si>
+  <si>
+    <t>final_50</t>
+  </si>
+  <si>
+    <t>final_51</t>
+  </si>
+  <si>
+    <t>final_52</t>
+  </si>
+  <si>
+    <t>final_53</t>
+  </si>
+  <si>
+    <t>final_54</t>
+  </si>
+  <si>
+    <t>final_55</t>
+  </si>
+  <si>
+    <t>final_56</t>
+  </si>
+  <si>
+    <t>final_57</t>
+  </si>
+  <si>
+    <t>final_58</t>
+  </si>
+  <si>
+    <t>final_59</t>
+  </si>
+  <si>
+    <t>final_60</t>
+  </si>
+  <si>
+    <t>final_61</t>
+  </si>
+  <si>
+    <t>final_62</t>
+  </si>
+  <si>
+    <t>final_63</t>
+  </si>
+  <si>
+    <t>final_64</t>
+  </si>
+  <si>
+    <t>final_65</t>
+  </si>
+  <si>
+    <t>final_66</t>
+  </si>
+  <si>
+    <t>final_67</t>
+  </si>
+  <si>
+    <t>final_68</t>
+  </si>
+  <si>
+    <t>final_69</t>
+  </si>
+  <si>
+    <t>final_70</t>
+  </si>
+  <si>
+    <t>final_71</t>
+  </si>
+  <si>
+    <t>final_72</t>
+  </si>
+  <si>
+    <t>final_73</t>
+  </si>
+  <si>
+    <t>final_74</t>
+  </si>
+  <si>
+    <t>final_75</t>
+  </si>
+  <si>
+    <t>final_76</t>
+  </si>
+  <si>
+    <t>final_77</t>
+  </si>
+  <si>
+    <t>final_78</t>
+  </si>
+  <si>
+    <t>final_79</t>
+  </si>
+  <si>
+    <t>final_80</t>
+  </si>
+  <si>
+    <t>final_81</t>
+  </si>
+  <si>
+    <t>final_82</t>
+  </si>
+  <si>
+    <t>final_83</t>
+  </si>
+  <si>
+    <t>final_84</t>
+  </si>
+  <si>
+    <t>final_85</t>
+  </si>
+  <si>
+    <t>final_86</t>
+  </si>
+  <si>
+    <t>final_87</t>
+  </si>
+  <si>
+    <t>final_88</t>
+  </si>
+  <si>
+    <t>final_89</t>
+  </si>
+  <si>
+    <t>final_90</t>
+  </si>
+  <si>
+    <t>final_91</t>
+  </si>
+  <si>
+    <t>final_92</t>
+  </si>
+  <si>
+    <t>final_93</t>
+  </si>
+  <si>
+    <t>final_94</t>
+  </si>
+  <si>
+    <t>final_95</t>
+  </si>
+  <si>
+    <t>final_96</t>
+  </si>
+  <si>
+    <t>final_97</t>
+  </si>
+  <si>
+    <t>final_98</t>
+  </si>
+  <si>
+    <t>final_99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>final_  1</t>
+  </si>
+  <si>
+    <t>final_  2</t>
+  </si>
+  <si>
+    <t>final_  3</t>
+  </si>
+  <si>
+    <t>final_  4</t>
+  </si>
+  <si>
+    <t>final_  5</t>
+  </si>
+  <si>
+    <t>final_  6</t>
+  </si>
+  <si>
+    <t>final_  7</t>
+  </si>
+  <si>
+    <t>final_  8</t>
+  </si>
+  <si>
+    <t>final_  9</t>
+  </si>
+  <si>
+    <t>final_ 10</t>
+  </si>
+  <si>
+    <t>final_ 11</t>
+  </si>
+  <si>
+    <t>final_ 12</t>
+  </si>
+  <si>
+    <t>final_ 13</t>
+  </si>
+  <si>
+    <t>final_ 14</t>
+  </si>
+  <si>
+    <t>final_ 15</t>
+  </si>
+  <si>
+    <t>final_ 16</t>
+  </si>
+  <si>
+    <t>final_ 17</t>
+  </si>
+  <si>
+    <t>final_ 18</t>
+  </si>
+  <si>
+    <t>final_ 19</t>
+  </si>
+  <si>
+    <t>final_ 20</t>
+  </si>
+  <si>
+    <t>final_ 21</t>
+  </si>
+  <si>
+    <t>final_ 22</t>
+  </si>
+  <si>
+    <t>final_ 23</t>
+  </si>
+  <si>
+    <t>final_ 24</t>
+  </si>
+  <si>
+    <t>final_ 25</t>
+  </si>
+  <si>
+    <t>final_ 26</t>
+  </si>
+  <si>
+    <t>final_ 27</t>
+  </si>
+  <si>
+    <t>final_ 28</t>
+  </si>
+  <si>
+    <t>final_ 29</t>
+  </si>
+  <si>
+    <t>final_ 30</t>
+  </si>
+  <si>
+    <t>final_ 31</t>
+  </si>
+  <si>
+    <t>final_ 32</t>
+  </si>
+  <si>
+    <t>final_ 33</t>
+  </si>
+  <si>
+    <t>final_ 34</t>
+  </si>
+  <si>
+    <t>final_ 35</t>
+  </si>
+  <si>
+    <t>final_ 36</t>
+  </si>
+  <si>
+    <t>final_ 37</t>
+  </si>
+  <si>
+    <t>final_ 38</t>
+  </si>
+  <si>
+    <t>final_ 39</t>
+  </si>
+  <si>
+    <t>final_ 40</t>
+  </si>
+  <si>
+    <t>final_ 41</t>
+  </si>
+  <si>
+    <t>final_ 42</t>
+  </si>
+  <si>
+    <t>final_ 43</t>
+  </si>
+  <si>
+    <t>final_ 44</t>
+  </si>
+  <si>
+    <t>final_ 45</t>
+  </si>
+  <si>
+    <t>final_ 46</t>
+  </si>
+  <si>
+    <t>final_ 47</t>
+  </si>
+  <si>
+    <t>final_ 48</t>
+  </si>
+  <si>
+    <t>final_ 49</t>
+  </si>
+  <si>
+    <t>final_ 50</t>
+  </si>
+  <si>
+    <t>final_ 51</t>
+  </si>
+  <si>
+    <t>final_ 52</t>
+  </si>
+  <si>
+    <t>final_ 53</t>
+  </si>
+  <si>
+    <t>final_ 54</t>
+  </si>
+  <si>
+    <t>final_ 55</t>
+  </si>
+  <si>
+    <t>final_ 56</t>
+  </si>
+  <si>
+    <t>final_ 57</t>
+  </si>
+  <si>
+    <t>final_ 58</t>
+  </si>
+  <si>
+    <t>final_ 59</t>
+  </si>
+  <si>
+    <t>final_ 60</t>
+  </si>
+  <si>
+    <t>final_ 61</t>
+  </si>
+  <si>
+    <t>final_ 62</t>
+  </si>
+  <si>
+    <t>final_ 63</t>
+  </si>
+  <si>
+    <t>final_ 64</t>
+  </si>
+  <si>
+    <t>final_ 65</t>
+  </si>
+  <si>
+    <t>final_ 66</t>
+  </si>
+  <si>
+    <t>final_ 67</t>
+  </si>
+  <si>
+    <t>final_ 68</t>
+  </si>
+  <si>
+    <t>final_ 69</t>
+  </si>
+  <si>
+    <t>final_ 70</t>
+  </si>
+  <si>
+    <t>final_ 71</t>
+  </si>
+  <si>
+    <t>final_ 72</t>
+  </si>
+  <si>
+    <t>final_ 73</t>
+  </si>
+  <si>
+    <t>final_ 74</t>
+  </si>
+  <si>
+    <t>final_ 75</t>
+  </si>
+  <si>
+    <t>final_ 76</t>
+  </si>
+  <si>
+    <t>final_ 77</t>
+  </si>
+  <si>
+    <t>final_ 78</t>
+  </si>
+  <si>
+    <t>final_ 79</t>
+  </si>
+  <si>
+    <t>final_ 80</t>
+  </si>
+  <si>
+    <t>final_ 81</t>
+  </si>
+  <si>
+    <t>final_ 82</t>
+  </si>
+  <si>
+    <t>final_ 83</t>
+  </si>
+  <si>
+    <t>final_ 84</t>
+  </si>
+  <si>
+    <t>final_ 85</t>
+  </si>
+  <si>
+    <t>final_ 86</t>
+  </si>
+  <si>
+    <t>final_ 87</t>
+  </si>
+  <si>
+    <t>final_ 88</t>
+  </si>
+  <si>
+    <t>final_ 89</t>
+  </si>
+  <si>
+    <t>final_ 90</t>
+  </si>
+  <si>
+    <t>final_ 91</t>
+  </si>
+  <si>
+    <t>final_ 92</t>
+  </si>
+  <si>
+    <t>final_ 93</t>
+  </si>
+  <si>
+    <t>final_ 94</t>
+  </si>
+  <si>
+    <t>final_ 95</t>
+  </si>
+  <si>
+    <t>final_ 96</t>
+  </si>
+  <si>
+    <t>final_ 97</t>
+  </si>
+  <si>
+    <t>final_ 98</t>
+  </si>
+  <si>
+    <t>final_ 99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>final_513</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>final_6</t>
+  </si>
+  <si>
+    <t>final_7</t>
+  </si>
+  <si>
+    <t>final_8</t>
+  </si>
+  <si>
+    <t>final_9</t>
+  </si>
+  <si>
+    <t>final_10</t>
+  </si>
+  <si>
+    <t>final_11</t>
+  </si>
+  <si>
+    <t>final_12</t>
+  </si>
+  <si>
+    <t>final_13</t>
+  </si>
+  <si>
+    <t>final_14</t>
+  </si>
+  <si>
+    <t>final_15</t>
+  </si>
+  <si>
+    <t>final_16</t>
+  </si>
+  <si>
+    <t>final_17</t>
+  </si>
+  <si>
+    <t>final_18</t>
+  </si>
+  <si>
+    <t>final_19</t>
+  </si>
+  <si>
+    <t>final_20</t>
+  </si>
+  <si>
+    <t>final_21</t>
+  </si>
+  <si>
+    <t>final_22</t>
+  </si>
+  <si>
+    <t>final_23</t>
+  </si>
+  <si>
+    <t>final_24</t>
+  </si>
+  <si>
+    <t>final_25</t>
+  </si>
+  <si>
+    <t>final_26</t>
+  </si>
+  <si>
+    <t>final_27</t>
+  </si>
+  <si>
+    <t>final_28</t>
+  </si>
+  <si>
+    <t>final_29</t>
+  </si>
+  <si>
+    <t>final_30</t>
+  </si>
+  <si>
+    <t>final_31</t>
+  </si>
+  <si>
+    <t>final_32</t>
+  </si>
+  <si>
+    <t>final_33</t>
+  </si>
+  <si>
+    <t>final_34</t>
+  </si>
+  <si>
+    <t>final_35</t>
+  </si>
+  <si>
+    <t>final_36</t>
+  </si>
+  <si>
+    <t>final_37</t>
+  </si>
+  <si>
+    <t>final_38</t>
+  </si>
+  <si>
+    <t>final_39</t>
+  </si>
+  <si>
+    <t>final_40</t>
+  </si>
+  <si>
+    <t>final_41</t>
+  </si>
+  <si>
+    <t>final_42</t>
+  </si>
+  <si>
+    <t>final_43</t>
+  </si>
+  <si>
+    <t>final_44</t>
+  </si>
+  <si>
+    <t>final_45</t>
+  </si>
+  <si>
+    <t>final_46</t>
+  </si>
+  <si>
+    <t>final_47</t>
+  </si>
+  <si>
+    <t>final_48</t>
+  </si>
+  <si>
+    <t>final_49</t>
+  </si>
+  <si>
+    <t>final_50</t>
+  </si>
+  <si>
+    <t>final_51</t>
+  </si>
+  <si>
+    <t>final_52</t>
+  </si>
+  <si>
+    <t>final_53</t>
+  </si>
+  <si>
+    <t>final_54</t>
+  </si>
+  <si>
+    <t>final_55</t>
+  </si>
+  <si>
+    <t>final_56</t>
+  </si>
+  <si>
+    <t>final_57</t>
+  </si>
+  <si>
+    <t>final_58</t>
+  </si>
+  <si>
+    <t>final_59</t>
+  </si>
+  <si>
+    <t>final_60</t>
+  </si>
+  <si>
+    <t>final_61</t>
+  </si>
+  <si>
+    <t>final_62</t>
+  </si>
+  <si>
+    <t>final_63</t>
+  </si>
+  <si>
+    <t>final_64</t>
+  </si>
+  <si>
+    <t>final_65</t>
+  </si>
+  <si>
+    <t>final_66</t>
+  </si>
+  <si>
+    <t>final_67</t>
+  </si>
+  <si>
+    <t>final_68</t>
+  </si>
+  <si>
+    <t>final_69</t>
+  </si>
+  <si>
+    <t>final_70</t>
+  </si>
+  <si>
+    <t>final_71</t>
+  </si>
+  <si>
+    <t>final_72</t>
+  </si>
+  <si>
+    <t>final_73</t>
+  </si>
+  <si>
+    <t>final_74</t>
+  </si>
+  <si>
+    <t>final_75</t>
+  </si>
+  <si>
+    <t>final_76</t>
+  </si>
+  <si>
+    <t>final_77</t>
+  </si>
+  <si>
+    <t>final_78</t>
+  </si>
+  <si>
+    <t>final_79</t>
+  </si>
+  <si>
+    <t>final_80</t>
+  </si>
+  <si>
+    <t>final_81</t>
+  </si>
+  <si>
+    <t>final_82</t>
+  </si>
+  <si>
+    <t>final_83</t>
+  </si>
+  <si>
+    <t>final_84</t>
+  </si>
+  <si>
+    <t>final_85</t>
+  </si>
+  <si>
+    <t>final_86</t>
+  </si>
+  <si>
+    <t>final_87</t>
+  </si>
+  <si>
+    <t>final_88</t>
+  </si>
+  <si>
+    <t>final_89</t>
+  </si>
+  <si>
+    <t>final_90</t>
+  </si>
+  <si>
+    <t>final_91</t>
+  </si>
+  <si>
+    <t>final_92</t>
+  </si>
+  <si>
+    <t>final_93</t>
+  </si>
+  <si>
+    <t>final_94</t>
+  </si>
+  <si>
+    <t>final_95</t>
+  </si>
+  <si>
+    <t>final_96</t>
+  </si>
+  <si>
+    <t>final_97</t>
+  </si>
+  <si>
+    <t>final_98</t>
+  </si>
+  <si>
+    <t>final_99</t>
+  </si>
+  <si>
+    <t>final_100</t>
+  </si>
+  <si>
+    <t>final_101</t>
+  </si>
+  <si>
+    <t>final_102</t>
+  </si>
+  <si>
+    <t>final_103</t>
+  </si>
+  <si>
+    <t>final_104</t>
+  </si>
+  <si>
+    <t>final_105</t>
+  </si>
+  <si>
+    <t>final_106</t>
+  </si>
+  <si>
+    <t>final_107</t>
+  </si>
+  <si>
+    <t>final_108</t>
+  </si>
+  <si>
+    <t>final_109</t>
+  </si>
+  <si>
+    <t>final_110</t>
+  </si>
+  <si>
+    <t>final_111</t>
+  </si>
+  <si>
+    <t>final_112</t>
+  </si>
+  <si>
+    <t>final_113</t>
+  </si>
+  <si>
+    <t>final_114</t>
+  </si>
+  <si>
+    <t>final_115</t>
+  </si>
+  <si>
+    <t>final_116</t>
+  </si>
+  <si>
+    <t>final_117</t>
+  </si>
+  <si>
+    <t>final_118</t>
+  </si>
+  <si>
+    <t>final_119</t>
+  </si>
+  <si>
+    <t>final_120</t>
+  </si>
+  <si>
+    <t>final_121</t>
+  </si>
+  <si>
+    <t>final_122</t>
+  </si>
+  <si>
+    <t>final_123</t>
+  </si>
+  <si>
+    <t>final_124</t>
+  </si>
+  <si>
+    <t>final_125</t>
+  </si>
+  <si>
+    <t>final_126</t>
+  </si>
+  <si>
+    <t>final_127</t>
+  </si>
+  <si>
+    <t>final_128</t>
+  </si>
+  <si>
+    <t>final_129</t>
+  </si>
+  <si>
+    <t>final_130</t>
+  </si>
+  <si>
+    <t>final_131</t>
+  </si>
+  <si>
+    <t>final_132</t>
+  </si>
+  <si>
+    <t>final_133</t>
+  </si>
+  <si>
+    <t>final_134</t>
+  </si>
+  <si>
+    <t>final_135</t>
+  </si>
+  <si>
+    <t>final_136</t>
+  </si>
+  <si>
+    <t>final_137</t>
+  </si>
+  <si>
+    <t>final_138</t>
+  </si>
+  <si>
+    <t>final_139</t>
+  </si>
+  <si>
+    <t>final_140</t>
+  </si>
+  <si>
+    <t>final_141</t>
+  </si>
+  <si>
+    <t>final_142</t>
+  </si>
+  <si>
+    <t>final_143</t>
+  </si>
+  <si>
+    <t>final_144</t>
+  </si>
+  <si>
+    <t>final_145</t>
+  </si>
+  <si>
+    <t>final_146</t>
+  </si>
+  <si>
+    <t>final_147</t>
+  </si>
+  <si>
+    <t>final_148</t>
+  </si>
+  <si>
+    <t>final_149</t>
+  </si>
+  <si>
+    <t>final_150</t>
+  </si>
+  <si>
+    <t>final_151</t>
+  </si>
+  <si>
+    <t>final_152</t>
+  </si>
+  <si>
+    <t>final_153</t>
+  </si>
+  <si>
+    <t>final_154</t>
+  </si>
+  <si>
+    <t>final_155</t>
+  </si>
+  <si>
+    <t>final_156</t>
+  </si>
+  <si>
+    <t>final_157</t>
+  </si>
+  <si>
+    <t>final_158</t>
+  </si>
+  <si>
+    <t>final_159</t>
+  </si>
+  <si>
+    <t>final_160</t>
+  </si>
+  <si>
+    <t>final_161</t>
+  </si>
+  <si>
+    <t>final_162</t>
+  </si>
+  <si>
+    <t>final_163</t>
+  </si>
+  <si>
+    <t>final_164</t>
+  </si>
+  <si>
+    <t>final_165</t>
+  </si>
+  <si>
+    <t>final_166</t>
+  </si>
+  <si>
+    <t>final_167</t>
+  </si>
+  <si>
+    <t>final_168</t>
+  </si>
+  <si>
+    <t>final_169</t>
+  </si>
+  <si>
+    <t>final_170</t>
+  </si>
+  <si>
+    <t>final_171</t>
+  </si>
+  <si>
+    <t>final_172</t>
+  </si>
+  <si>
+    <t>final_173</t>
+  </si>
+  <si>
+    <t>final_174</t>
+  </si>
+  <si>
+    <t>final_175</t>
+  </si>
+  <si>
+    <t>final_176</t>
+  </si>
+  <si>
+    <t>final_177</t>
+  </si>
+  <si>
+    <t>final_178</t>
+  </si>
+  <si>
+    <t>final_179</t>
+  </si>
+  <si>
+    <t>final_180</t>
+  </si>
+  <si>
+    <t>final_181</t>
+  </si>
+  <si>
+    <t>final_182</t>
+  </si>
+  <si>
+    <t>final_183</t>
+  </si>
+  <si>
+    <t>final_184</t>
+  </si>
+  <si>
+    <t>final_185</t>
+  </si>
+  <si>
+    <t>final_186</t>
+  </si>
+  <si>
+    <t>final_187</t>
+  </si>
+  <si>
+    <t>final_188</t>
+  </si>
+  <si>
+    <t>final_189</t>
+  </si>
+  <si>
+    <t>final_190</t>
+  </si>
+  <si>
+    <t>final_191</t>
+  </si>
+  <si>
+    <t>final_192</t>
+  </si>
+  <si>
+    <t>final_193</t>
+  </si>
+  <si>
+    <t>final_194</t>
+  </si>
+  <si>
+    <t>final_195</t>
+  </si>
+  <si>
+    <t>final_196</t>
+  </si>
+  <si>
+    <t>final_197</t>
+  </si>
+  <si>
+    <t>final_198</t>
+  </si>
+  <si>
+    <t>final_199</t>
+  </si>
+  <si>
+    <t>final_200</t>
+  </si>
+  <si>
+    <t>final_201</t>
+  </si>
+  <si>
+    <t>final_202</t>
+  </si>
+  <si>
+    <t>final_203</t>
+  </si>
+  <si>
+    <t>final_204</t>
+  </si>
+  <si>
+    <t>final_205</t>
+  </si>
+  <si>
+    <t>final_206</t>
+  </si>
+  <si>
+    <t>final_207</t>
+  </si>
+  <si>
+    <t>final_208</t>
+  </si>
+  <si>
+    <t>final_209</t>
+  </si>
+  <si>
+    <t>final_210</t>
+  </si>
+  <si>
+    <t>final_211</t>
+  </si>
+  <si>
+    <t>final_212</t>
+  </si>
+  <si>
+    <t>final_213</t>
+  </si>
+  <si>
+    <t>final_214</t>
+  </si>
+  <si>
+    <t>final_215</t>
+  </si>
+  <si>
+    <t>final_216</t>
+  </si>
+  <si>
+    <t>final_217</t>
+  </si>
+  <si>
+    <t>final_218</t>
+  </si>
+  <si>
+    <t>final_219</t>
+  </si>
+  <si>
+    <t>final_220</t>
+  </si>
+  <si>
+    <t>final_221</t>
+  </si>
+  <si>
+    <t>final_222</t>
+  </si>
+  <si>
+    <t>final_223</t>
+  </si>
+  <si>
+    <t>final_224</t>
+  </si>
+  <si>
+    <t>final_225</t>
+  </si>
+  <si>
+    <t>final_226</t>
+  </si>
+  <si>
+    <t>final_227</t>
+  </si>
+  <si>
+    <t>final_228</t>
+  </si>
+  <si>
+    <t>final_229</t>
+  </si>
+  <si>
+    <t>final_230</t>
+  </si>
+  <si>
+    <t>final_231</t>
+  </si>
+  <si>
+    <t>final_232</t>
+  </si>
+  <si>
+    <t>final_233</t>
+  </si>
+  <si>
+    <t>final_234</t>
+  </si>
+  <si>
+    <t>final_235</t>
+  </si>
+  <si>
+    <t>final_236</t>
+  </si>
+  <si>
+    <t>final_237</t>
+  </si>
+  <si>
+    <t>final_238</t>
+  </si>
+  <si>
+    <t>final_239</t>
+  </si>
+  <si>
+    <t>final_240</t>
+  </si>
+  <si>
+    <t>final_241</t>
+  </si>
+  <si>
+    <t>final_242</t>
+  </si>
+  <si>
+    <t>final_243</t>
+  </si>
+  <si>
+    <t>final_244</t>
+  </si>
+  <si>
+    <t>final_245</t>
+  </si>
+  <si>
+    <t>final_246</t>
+  </si>
+  <si>
+    <t>final_247</t>
+  </si>
+  <si>
+    <t>final_248</t>
+  </si>
+  <si>
+    <t>final_249</t>
+  </si>
+  <si>
+    <t>final_250</t>
+  </si>
+  <si>
+    <t>final_251</t>
+  </si>
+  <si>
+    <t>final_252</t>
+  </si>
+  <si>
+    <t>final_253</t>
+  </si>
+  <si>
+    <t>final_254</t>
+  </si>
+  <si>
+    <t>final_255</t>
+  </si>
+  <si>
+    <t>final_256</t>
+  </si>
+  <si>
+    <t>final_257</t>
+  </si>
+  <si>
+    <t>final_258</t>
+  </si>
+  <si>
+    <t>final_259</t>
+  </si>
+  <si>
+    <t>final_260</t>
+  </si>
+  <si>
+    <t>final_261</t>
+  </si>
+  <si>
+    <t>final_262</t>
+  </si>
+  <si>
+    <t>final_263</t>
+  </si>
+  <si>
+    <t>final_264</t>
+  </si>
+  <si>
+    <t>final_265</t>
+  </si>
+  <si>
+    <t>final_266</t>
+  </si>
+  <si>
+    <t>final_267</t>
+  </si>
+  <si>
+    <t>final_268</t>
+  </si>
+  <si>
+    <t>final_269</t>
+  </si>
+  <si>
+    <t>final_270</t>
+  </si>
+  <si>
+    <t>final_271</t>
+  </si>
+  <si>
+    <t>final_272</t>
+  </si>
+  <si>
+    <t>final_273</t>
+  </si>
+  <si>
+    <t>final_274</t>
+  </si>
+  <si>
+    <t>final_275</t>
+  </si>
+  <si>
+    <t>final_276</t>
+  </si>
+  <si>
+    <t>final_277</t>
+  </si>
+  <si>
+    <t>final_278</t>
+  </si>
+  <si>
+    <t>final_279</t>
+  </si>
+  <si>
+    <t>final_280</t>
+  </si>
+  <si>
+    <t>final_281</t>
+  </si>
+  <si>
+    <t>final_282</t>
+  </si>
+  <si>
+    <t>final_283</t>
+  </si>
+  <si>
+    <t>final_284</t>
+  </si>
+  <si>
+    <t>final_285</t>
+  </si>
+  <si>
+    <t>final_286</t>
+  </si>
+  <si>
+    <t>final_287</t>
+  </si>
+  <si>
+    <t>final_288</t>
+  </si>
+  <si>
+    <t>final_289</t>
+  </si>
+  <si>
+    <t>final_290</t>
+  </si>
+  <si>
+    <t>final_291</t>
+  </si>
+  <si>
+    <t>final_292</t>
+  </si>
+  <si>
+    <t>final_293</t>
+  </si>
+  <si>
+    <t>final_294</t>
+  </si>
+  <si>
+    <t>final_295</t>
+  </si>
+  <si>
+    <t>final_296</t>
+  </si>
+  <si>
+    <t>final_297</t>
+  </si>
+  <si>
+    <t>final_298</t>
+  </si>
+  <si>
+    <t>final_299</t>
+  </si>
+  <si>
+    <t>final_300</t>
+  </si>
+  <si>
+    <t>final_301</t>
+  </si>
+  <si>
+    <t>final_302</t>
+  </si>
+  <si>
+    <t>final_303</t>
+  </si>
+  <si>
+    <t>final_304</t>
+  </si>
+  <si>
+    <t>final_305</t>
+  </si>
+  <si>
+    <t>final_306</t>
+  </si>
+  <si>
+    <t>final_307</t>
+  </si>
+  <si>
+    <t>final_308</t>
+  </si>
+  <si>
+    <t>final_309</t>
+  </si>
+  <si>
+    <t>final_310</t>
+  </si>
+  <si>
+    <t>final_311</t>
+  </si>
+  <si>
+    <t>final_312</t>
+  </si>
+  <si>
+    <t>final_313</t>
+  </si>
+  <si>
+    <t>final_314</t>
+  </si>
+  <si>
+    <t>final_315</t>
+  </si>
+  <si>
+    <t>final_316</t>
+  </si>
+  <si>
+    <t>final_317</t>
+  </si>
+  <si>
+    <t>final_318</t>
+  </si>
+  <si>
+    <t>final_319</t>
+  </si>
+  <si>
+    <t>final_320</t>
+  </si>
+  <si>
+    <t>final_321</t>
+  </si>
+  <si>
+    <t>final_322</t>
+  </si>
+  <si>
+    <t>final_323</t>
+  </si>
+  <si>
+    <t>final_324</t>
+  </si>
+  <si>
+    <t>final_325</t>
+  </si>
+  <si>
+    <t>final_326</t>
+  </si>
+  <si>
+    <t>final_327</t>
+  </si>
+  <si>
+    <t>final_328</t>
+  </si>
+  <si>
+    <t>final_329</t>
+  </si>
+  <si>
+    <t>final_330</t>
+  </si>
+  <si>
+    <t>final_331</t>
+  </si>
+  <si>
+    <t>final_332</t>
+  </si>
+  <si>
+    <t>final_333</t>
+  </si>
+  <si>
+    <t>final_334</t>
+  </si>
+  <si>
+    <t>final_335</t>
+  </si>
+  <si>
+    <t>final_336</t>
+  </si>
+  <si>
+    <t>final_337</t>
+  </si>
+  <si>
+    <t>final_338</t>
+  </si>
+  <si>
+    <t>final_339</t>
+  </si>
+  <si>
+    <t>final_340</t>
+  </si>
+  <si>
+    <t>final_341</t>
+  </si>
+  <si>
+    <t>final_342</t>
+  </si>
+  <si>
+    <t>final_343</t>
+  </si>
+  <si>
+    <t>final_344</t>
+  </si>
+  <si>
+    <t>final_345</t>
+  </si>
+  <si>
+    <t>final_346</t>
+  </si>
+  <si>
+    <t>final_347</t>
+  </si>
+  <si>
+    <t>final_348</t>
+  </si>
+  <si>
+    <t>final_349</t>
+  </si>
+  <si>
+    <t>final_350</t>
+  </si>
+  <si>
+    <t>final_351</t>
+  </si>
+  <si>
+    <t>final_352</t>
+  </si>
+  <si>
+    <t>final_353</t>
+  </si>
+  <si>
+    <t>final_354</t>
+  </si>
+  <si>
+    <t>final_355</t>
+  </si>
+  <si>
+    <t>final_356</t>
+  </si>
+  <si>
+    <t>final_357</t>
+  </si>
+  <si>
+    <t>final_358</t>
+  </si>
+  <si>
+    <t>final_359</t>
+  </si>
+  <si>
+    <t>final_360</t>
+  </si>
+  <si>
+    <t>final_361</t>
+  </si>
+  <si>
+    <t>final_362</t>
+  </si>
+  <si>
+    <t>final_363</t>
+  </si>
+  <si>
+    <t>final_364</t>
+  </si>
+  <si>
+    <t>final_365</t>
+  </si>
+  <si>
+    <t>final_366</t>
+  </si>
+  <si>
+    <t>final_367</t>
+  </si>
+  <si>
+    <t>final_368</t>
+  </si>
+  <si>
+    <t>final_369</t>
+  </si>
+  <si>
+    <t>final_370</t>
+  </si>
+  <si>
+    <t>final_371</t>
+  </si>
+  <si>
+    <t>final_372</t>
+  </si>
+  <si>
+    <t>final_373</t>
+  </si>
+  <si>
+    <t>final_374</t>
+  </si>
+  <si>
+    <t>final_375</t>
+  </si>
+  <si>
+    <t>final_376</t>
+  </si>
+  <si>
+    <t>final_377</t>
+  </si>
+  <si>
+    <t>final_378</t>
+  </si>
+  <si>
+    <t>final_379</t>
+  </si>
+  <si>
+    <t>final_380</t>
+  </si>
+  <si>
+    <t>final_381</t>
+  </si>
+  <si>
+    <t>final_382</t>
+  </si>
+  <si>
+    <t>final_383</t>
+  </si>
+  <si>
+    <t>final_384</t>
+  </si>
+  <si>
+    <t>final_385</t>
+  </si>
+  <si>
+    <t>final_386</t>
+  </si>
+  <si>
+    <t>final_387</t>
+  </si>
+  <si>
+    <t>final_388</t>
+  </si>
+  <si>
+    <t>final_389</t>
+  </si>
+  <si>
+    <t>final_390</t>
+  </si>
+  <si>
+    <t>final_391</t>
+  </si>
+  <si>
+    <t>final_392</t>
+  </si>
+  <si>
+    <t>final_393</t>
+  </si>
+  <si>
+    <t>final_394</t>
+  </si>
+  <si>
+    <t>final_395</t>
+  </si>
+  <si>
+    <t>final_396</t>
+  </si>
+  <si>
+    <t>final_397</t>
+  </si>
+  <si>
+    <t>final_398</t>
+  </si>
+  <si>
+    <t>final_399</t>
+  </si>
+  <si>
+    <t>final_400</t>
+  </si>
+  <si>
+    <t>final_401</t>
+  </si>
+  <si>
+    <t>final_402</t>
+  </si>
+  <si>
+    <t>final_403</t>
+  </si>
+  <si>
+    <t>final_404</t>
+  </si>
+  <si>
+    <t>final_405</t>
+  </si>
+  <si>
+    <t>final_406</t>
+  </si>
+  <si>
+    <t>final_407</t>
+  </si>
+  <si>
+    <t>final_408</t>
+  </si>
+  <si>
+    <t>final_409</t>
+  </si>
+  <si>
+    <t>final_410</t>
+  </si>
+  <si>
+    <t>final_411</t>
+  </si>
+  <si>
+    <t>final_412</t>
+  </si>
+  <si>
+    <t>final_413</t>
+  </si>
+  <si>
+    <t>final_414</t>
+  </si>
+  <si>
+    <t>final_415</t>
+  </si>
+  <si>
+    <t>final_416</t>
+  </si>
+  <si>
+    <t>final_417</t>
+  </si>
+  <si>
+    <t>final_418</t>
+  </si>
+  <si>
+    <t>final_419</t>
+  </si>
+  <si>
+    <t>final_420</t>
+  </si>
+  <si>
+    <t>final_421</t>
+  </si>
+  <si>
+    <t>final_422</t>
+  </si>
+  <si>
+    <t>final_423</t>
+  </si>
+  <si>
+    <t>final_424</t>
+  </si>
+  <si>
+    <t>final_425</t>
+  </si>
+  <si>
+    <t>final_426</t>
+  </si>
+  <si>
+    <t>final_427</t>
+  </si>
+  <si>
+    <t>final_428</t>
+  </si>
+  <si>
+    <t>final_429</t>
+  </si>
+  <si>
+    <t>final_430</t>
+  </si>
+  <si>
+    <t>final_431</t>
+  </si>
+  <si>
+    <t>final_432</t>
+  </si>
+  <si>
+    <t>final_433</t>
+  </si>
+  <si>
+    <t>final_434</t>
+  </si>
+  <si>
+    <t>final_435</t>
+  </si>
+  <si>
+    <t>final_436</t>
+  </si>
+  <si>
+    <t>final_437</t>
+  </si>
+  <si>
+    <t>final_438</t>
+  </si>
+  <si>
+    <t>final_439</t>
+  </si>
+  <si>
+    <t>final_440</t>
+  </si>
+  <si>
+    <t>final_441</t>
+  </si>
+  <si>
+    <t>final_442</t>
+  </si>
+  <si>
+    <t>final_443</t>
+  </si>
+  <si>
+    <t>final_444</t>
+  </si>
+  <si>
+    <t>final_445</t>
+  </si>
+  <si>
+    <t>final_446</t>
+  </si>
+  <si>
+    <t>final_447</t>
+  </si>
+  <si>
+    <t>final_448</t>
+  </si>
+  <si>
+    <t>final_449</t>
+  </si>
+  <si>
+    <t>final_450</t>
+  </si>
+  <si>
+    <t>final_451</t>
+  </si>
+  <si>
+    <t>final_452</t>
+  </si>
+  <si>
+    <t>final_453</t>
+  </si>
+  <si>
+    <t>final_454</t>
+  </si>
+  <si>
+    <t>final_455</t>
+  </si>
+  <si>
+    <t>final_456</t>
+  </si>
+  <si>
+    <t>final_457</t>
+  </si>
+  <si>
+    <t>final_458</t>
+  </si>
+  <si>
+    <t>final_459</t>
+  </si>
+  <si>
+    <t>final_460</t>
+  </si>
+  <si>
+    <t>final_461</t>
+  </si>
+  <si>
+    <t>final_462</t>
+  </si>
+  <si>
+    <t>final_463</t>
+  </si>
+  <si>
+    <t>final_464</t>
+  </si>
+  <si>
+    <t>final_465</t>
+  </si>
+  <si>
+    <t>final_466</t>
+  </si>
+  <si>
+    <t>final_467</t>
+  </si>
+  <si>
+    <t>final_468</t>
+  </si>
+  <si>
+    <t>final_469</t>
+  </si>
+  <si>
+    <t>final_470</t>
+  </si>
+  <si>
+    <t>final_471</t>
+  </si>
+  <si>
+    <t>final_472</t>
+  </si>
+  <si>
+    <t>final_473</t>
+  </si>
+  <si>
+    <t>final_474</t>
+  </si>
+  <si>
+    <t>final_475</t>
+  </si>
+  <si>
+    <t>final_476</t>
+  </si>
+  <si>
+    <t>final_477</t>
+  </si>
+  <si>
+    <t>final_478</t>
+  </si>
+  <si>
+    <t>final_479</t>
+  </si>
+  <si>
+    <t>final_480</t>
+  </si>
+  <si>
+    <t>final_481</t>
+  </si>
+  <si>
+    <t>final_482</t>
+  </si>
+  <si>
+    <t>final_483</t>
+  </si>
+  <si>
+    <t>final_484</t>
+  </si>
+  <si>
+    <t>final_485</t>
+  </si>
+  <si>
+    <t>final_486</t>
+  </si>
+  <si>
+    <t>final_487</t>
+  </si>
+  <si>
+    <t>final_488</t>
+  </si>
+  <si>
+    <t>final_489</t>
+  </si>
+  <si>
+    <t>final_490</t>
+  </si>
+  <si>
+    <t>final_491</t>
+  </si>
+  <si>
+    <t>final_492</t>
+  </si>
+  <si>
+    <t>final_493</t>
+  </si>
+  <si>
+    <t>final_494</t>
+  </si>
+  <si>
+    <t>final_495</t>
+  </si>
+  <si>
+    <t>final_496</t>
+  </si>
+  <si>
+    <t>final_497</t>
+  </si>
+  <si>
+    <t>final_498</t>
+  </si>
+  <si>
+    <t>final_499</t>
+  </si>
+  <si>
+    <t>final_500</t>
+  </si>
+  <si>
+    <t>final_501</t>
+  </si>
+  <si>
+    <t>final_502</t>
+  </si>
+  <si>
+    <t>final_503</t>
+  </si>
+  <si>
+    <t>final_504</t>
+  </si>
+  <si>
+    <t>final_505</t>
+  </si>
+  <si>
+    <t>final_506</t>
+  </si>
+  <si>
+    <t>final_507</t>
+  </si>
+  <si>
+    <t>final_508</t>
+  </si>
+  <si>
+    <t>final_509</t>
+  </si>
+  <si>
+    <t>final_510</t>
+  </si>
+  <si>
+    <t>final_511</t>
+  </si>
+  <si>
+    <t>final_512</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
   <si>
     <t>final_  1</t>
   </si>
@@ -22167,7 +28491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -22189,11 +28513,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -22209,6 +28537,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22738,1543 +29070,1543 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6851</v>
+        <v>8959</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6852</v>
+        <v>8960</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6853</v>
+        <v>8961</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6854</v>
+        <v>8962</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6855</v>
+        <v>8963</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6856</v>
+        <v>8964</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6857</v>
+        <v>8965</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6858</v>
+        <v>8966</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6859</v>
+        <v>8967</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6860</v>
+        <v>8968</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>6861</v>
+        <v>8969</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>6862</v>
+        <v>8970</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>6863</v>
+        <v>8971</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>6864</v>
+        <v>8972</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>6865</v>
+        <v>8973</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>6866</v>
+        <v>8974</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>6867</v>
+        <v>8975</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>6868</v>
+        <v>8976</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>6869</v>
+        <v>8977</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>6870</v>
+        <v>8978</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>6871</v>
+        <v>8979</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>6872</v>
+        <v>8980</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>6873</v>
+        <v>8981</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>6874</v>
+        <v>8982</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>6875</v>
+        <v>8983</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>6876</v>
+        <v>8984</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>6877</v>
+        <v>8985</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>6878</v>
+        <v>8986</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>6879</v>
+        <v>8987</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>6880</v>
+        <v>8988</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>6881</v>
+        <v>8989</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>6882</v>
+        <v>8990</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>6883</v>
+        <v>8991</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>6884</v>
+        <v>8992</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>6885</v>
+        <v>8993</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>6886</v>
+        <v>8994</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>6887</v>
+        <v>8995</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>6888</v>
+        <v>8996</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>6889</v>
+        <v>8997</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>6890</v>
+        <v>8998</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>6891</v>
+        <v>8999</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>6892</v>
+        <v>9000</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>6893</v>
+        <v>9001</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>6894</v>
+        <v>9002</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>6895</v>
+        <v>9003</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>6896</v>
+        <v>9004</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>6897</v>
+        <v>9005</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>6898</v>
+        <v>9006</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>6899</v>
+        <v>9007</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>6900</v>
+        <v>9008</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>6901</v>
+        <v>9009</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>6902</v>
+        <v>9010</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>6903</v>
+        <v>9011</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>6904</v>
+        <v>9012</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>6905</v>
+        <v>9013</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>6906</v>
+        <v>9014</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>6907</v>
+        <v>9015</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>6908</v>
+        <v>9016</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>6909</v>
+        <v>9017</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>6910</v>
+        <v>9018</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>6911</v>
+        <v>9019</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>6912</v>
+        <v>9020</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>6913</v>
+        <v>9021</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>6914</v>
+        <v>9022</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>6915</v>
+        <v>9023</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>6916</v>
+        <v>9024</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>6917</v>
+        <v>9025</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>6918</v>
+        <v>9026</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>6919</v>
+        <v>9027</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>6920</v>
+        <v>9028</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>6921</v>
+        <v>9029</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>6922</v>
+        <v>9030</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>6923</v>
+        <v>9031</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>6924</v>
+        <v>9032</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>6925</v>
+        <v>9033</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>6926</v>
+        <v>9034</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>6927</v>
+        <v>9035</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>6928</v>
+        <v>9036</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>6929</v>
+        <v>9037</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>6930</v>
+        <v>9038</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>6931</v>
+        <v>9039</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>6932</v>
+        <v>9040</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>6933</v>
+        <v>9041</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>6934</v>
+        <v>9042</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>6935</v>
+        <v>9043</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>6936</v>
+        <v>9044</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>6937</v>
+        <v>9045</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>6938</v>
+        <v>9046</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>6939</v>
+        <v>9047</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>6940</v>
+        <v>9048</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>6941</v>
+        <v>9049</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>6942</v>
+        <v>9050</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>6943</v>
+        <v>9051</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>6944</v>
+        <v>9052</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>6945</v>
+        <v>9053</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>6946</v>
+        <v>9054</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>6947</v>
+        <v>9055</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>6948</v>
+        <v>9056</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>6949</v>
+        <v>9057</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>6950</v>
+        <v>9058</v>
       </c>
       <c r="CW1" s="0" t="s">
-        <v>6951</v>
+        <v>9059</v>
       </c>
       <c r="CX1" s="0" t="s">
-        <v>6952</v>
+        <v>9060</v>
       </c>
       <c r="CY1" s="0" t="s">
-        <v>6953</v>
+        <v>9061</v>
       </c>
       <c r="CZ1" s="0" t="s">
-        <v>6954</v>
+        <v>9062</v>
       </c>
       <c r="DA1" s="0" t="s">
-        <v>6955</v>
+        <v>9063</v>
       </c>
       <c r="DB1" s="0" t="s">
-        <v>6956</v>
+        <v>9064</v>
       </c>
       <c r="DC1" s="0" t="s">
-        <v>6957</v>
+        <v>9065</v>
       </c>
       <c r="DD1" s="0" t="s">
-        <v>6958</v>
+        <v>9066</v>
       </c>
       <c r="DE1" s="0" t="s">
-        <v>6959</v>
+        <v>9067</v>
       </c>
       <c r="DF1" s="0" t="s">
-        <v>6960</v>
+        <v>9068</v>
       </c>
       <c r="DG1" s="0" t="s">
-        <v>6961</v>
+        <v>9069</v>
       </c>
       <c r="DH1" s="0" t="s">
-        <v>6962</v>
+        <v>9070</v>
       </c>
       <c r="DI1" s="0" t="s">
-        <v>6963</v>
+        <v>9071</v>
       </c>
       <c r="DJ1" s="0" t="s">
-        <v>6964</v>
+        <v>9072</v>
       </c>
       <c r="DK1" s="0" t="s">
-        <v>6965</v>
+        <v>9073</v>
       </c>
       <c r="DL1" s="0" t="s">
-        <v>6966</v>
+        <v>9074</v>
       </c>
       <c r="DM1" s="0" t="s">
-        <v>6967</v>
+        <v>9075</v>
       </c>
       <c r="DN1" s="0" t="s">
-        <v>6968</v>
+        <v>9076</v>
       </c>
       <c r="DO1" s="0" t="s">
-        <v>6969</v>
+        <v>9077</v>
       </c>
       <c r="DP1" s="0" t="s">
-        <v>6970</v>
+        <v>9078</v>
       </c>
       <c r="DQ1" s="0" t="s">
-        <v>6971</v>
+        <v>9079</v>
       </c>
       <c r="DR1" s="0" t="s">
-        <v>6972</v>
+        <v>9080</v>
       </c>
       <c r="DS1" s="0" t="s">
-        <v>6973</v>
+        <v>9081</v>
       </c>
       <c r="DT1" s="0" t="s">
-        <v>6974</v>
+        <v>9082</v>
       </c>
       <c r="DU1" s="0" t="s">
-        <v>6975</v>
+        <v>9083</v>
       </c>
       <c r="DV1" s="0" t="s">
-        <v>6976</v>
+        <v>9084</v>
       </c>
       <c r="DW1" s="0" t="s">
-        <v>6977</v>
+        <v>9085</v>
       </c>
       <c r="DX1" s="0" t="s">
-        <v>6978</v>
+        <v>9086</v>
       </c>
       <c r="DY1" s="0" t="s">
-        <v>6979</v>
+        <v>9087</v>
       </c>
       <c r="DZ1" s="0" t="s">
-        <v>6980</v>
+        <v>9088</v>
       </c>
       <c r="EA1" s="0" t="s">
-        <v>6981</v>
+        <v>9089</v>
       </c>
       <c r="EB1" s="0" t="s">
-        <v>6982</v>
+        <v>9090</v>
       </c>
       <c r="EC1" s="0" t="s">
-        <v>6983</v>
+        <v>9091</v>
       </c>
       <c r="ED1" s="0" t="s">
-        <v>6984</v>
+        <v>9092</v>
       </c>
       <c r="EE1" s="0" t="s">
-        <v>6985</v>
+        <v>9093</v>
       </c>
       <c r="EF1" s="0" t="s">
-        <v>6986</v>
+        <v>9094</v>
       </c>
       <c r="EG1" s="0" t="s">
-        <v>6987</v>
+        <v>9095</v>
       </c>
       <c r="EH1" s="0" t="s">
-        <v>6988</v>
+        <v>9096</v>
       </c>
       <c r="EI1" s="0" t="s">
-        <v>6989</v>
+        <v>9097</v>
       </c>
       <c r="EJ1" s="0" t="s">
-        <v>6990</v>
+        <v>9098</v>
       </c>
       <c r="EK1" s="0" t="s">
-        <v>6991</v>
+        <v>9099</v>
       </c>
       <c r="EL1" s="0" t="s">
-        <v>6992</v>
+        <v>9100</v>
       </c>
       <c r="EM1" s="0" t="s">
-        <v>6993</v>
+        <v>9101</v>
       </c>
       <c r="EN1" s="0" t="s">
-        <v>6994</v>
+        <v>9102</v>
       </c>
       <c r="EO1" s="0" t="s">
-        <v>6995</v>
+        <v>9103</v>
       </c>
       <c r="EP1" s="0" t="s">
-        <v>6996</v>
+        <v>9104</v>
       </c>
       <c r="EQ1" s="0" t="s">
-        <v>6997</v>
+        <v>9105</v>
       </c>
       <c r="ER1" s="0" t="s">
-        <v>6998</v>
+        <v>9106</v>
       </c>
       <c r="ES1" s="0" t="s">
-        <v>6999</v>
+        <v>9107</v>
       </c>
       <c r="ET1" s="0" t="s">
-        <v>7000</v>
+        <v>9108</v>
       </c>
       <c r="EU1" s="0" t="s">
-        <v>7001</v>
+        <v>9109</v>
       </c>
       <c r="EV1" s="0" t="s">
-        <v>7002</v>
+        <v>9110</v>
       </c>
       <c r="EW1" s="0" t="s">
-        <v>7003</v>
+        <v>9111</v>
       </c>
       <c r="EX1" s="0" t="s">
-        <v>7004</v>
+        <v>9112</v>
       </c>
       <c r="EY1" s="0" t="s">
-        <v>7005</v>
+        <v>9113</v>
       </c>
       <c r="EZ1" s="0" t="s">
-        <v>7006</v>
+        <v>9114</v>
       </c>
       <c r="FA1" s="0" t="s">
-        <v>7007</v>
+        <v>9115</v>
       </c>
       <c r="FB1" s="0" t="s">
-        <v>7008</v>
+        <v>9116</v>
       </c>
       <c r="FC1" s="0" t="s">
-        <v>7009</v>
+        <v>9117</v>
       </c>
       <c r="FD1" s="0" t="s">
-        <v>7010</v>
+        <v>9118</v>
       </c>
       <c r="FE1" s="0" t="s">
-        <v>7011</v>
+        <v>9119</v>
       </c>
       <c r="FF1" s="0" t="s">
-        <v>7012</v>
+        <v>9120</v>
       </c>
       <c r="FG1" s="0" t="s">
-        <v>7013</v>
+        <v>9121</v>
       </c>
       <c r="FH1" s="0" t="s">
-        <v>7014</v>
+        <v>9122</v>
       </c>
       <c r="FI1" s="0" t="s">
-        <v>7015</v>
+        <v>9123</v>
       </c>
       <c r="FJ1" s="0" t="s">
-        <v>7016</v>
+        <v>9124</v>
       </c>
       <c r="FK1" s="0" t="s">
-        <v>7017</v>
+        <v>9125</v>
       </c>
       <c r="FL1" s="0" t="s">
-        <v>7018</v>
+        <v>9126</v>
       </c>
       <c r="FM1" s="0" t="s">
-        <v>7019</v>
+        <v>9127</v>
       </c>
       <c r="FN1" s="0" t="s">
-        <v>7020</v>
+        <v>9128</v>
       </c>
       <c r="FO1" s="0" t="s">
-        <v>7021</v>
+        <v>9129</v>
       </c>
       <c r="FP1" s="0" t="s">
-        <v>7022</v>
+        <v>9130</v>
       </c>
       <c r="FQ1" s="0" t="s">
-        <v>7023</v>
+        <v>9131</v>
       </c>
       <c r="FR1" s="0" t="s">
-        <v>7024</v>
+        <v>9132</v>
       </c>
       <c r="FS1" s="0" t="s">
-        <v>7025</v>
+        <v>9133</v>
       </c>
       <c r="FT1" s="0" t="s">
-        <v>7026</v>
+        <v>9134</v>
       </c>
       <c r="FU1" s="0" t="s">
-        <v>7027</v>
+        <v>9135</v>
       </c>
       <c r="FV1" s="0" t="s">
-        <v>7028</v>
+        <v>9136</v>
       </c>
       <c r="FW1" s="0" t="s">
-        <v>7029</v>
+        <v>9137</v>
       </c>
       <c r="FX1" s="0" t="s">
-        <v>7030</v>
+        <v>9138</v>
       </c>
       <c r="FY1" s="0" t="s">
-        <v>7031</v>
+        <v>9139</v>
       </c>
       <c r="FZ1" s="0" t="s">
-        <v>7032</v>
+        <v>9140</v>
       </c>
       <c r="GA1" s="0" t="s">
-        <v>7033</v>
+        <v>9141</v>
       </c>
       <c r="GB1" s="0" t="s">
-        <v>7034</v>
+        <v>9142</v>
       </c>
       <c r="GC1" s="0" t="s">
-        <v>7035</v>
+        <v>9143</v>
       </c>
       <c r="GD1" s="0" t="s">
-        <v>7036</v>
+        <v>9144</v>
       </c>
       <c r="GE1" s="0" t="s">
-        <v>7037</v>
+        <v>9145</v>
       </c>
       <c r="GF1" s="0" t="s">
-        <v>7038</v>
+        <v>9146</v>
       </c>
       <c r="GG1" s="0" t="s">
-        <v>7039</v>
+        <v>9147</v>
       </c>
       <c r="GH1" s="0" t="s">
-        <v>7040</v>
+        <v>9148</v>
       </c>
       <c r="GI1" s="0" t="s">
-        <v>7041</v>
+        <v>9149</v>
       </c>
       <c r="GJ1" s="0" t="s">
-        <v>7042</v>
+        <v>9150</v>
       </c>
       <c r="GK1" s="0" t="s">
-        <v>7043</v>
+        <v>9151</v>
       </c>
       <c r="GL1" s="0" t="s">
-        <v>7044</v>
+        <v>9152</v>
       </c>
       <c r="GM1" s="0" t="s">
-        <v>7045</v>
+        <v>9153</v>
       </c>
       <c r="GN1" s="0" t="s">
-        <v>7046</v>
+        <v>9154</v>
       </c>
       <c r="GO1" s="0" t="s">
-        <v>7047</v>
+        <v>9155</v>
       </c>
       <c r="GP1" s="0" t="s">
-        <v>7048</v>
+        <v>9156</v>
       </c>
       <c r="GQ1" s="0" t="s">
-        <v>7049</v>
+        <v>9157</v>
       </c>
       <c r="GR1" s="0" t="s">
-        <v>7050</v>
+        <v>9158</v>
       </c>
       <c r="GS1" s="0" t="s">
-        <v>7051</v>
+        <v>9159</v>
       </c>
       <c r="GT1" s="0" t="s">
-        <v>7052</v>
+        <v>9160</v>
       </c>
       <c r="GU1" s="0" t="s">
-        <v>7053</v>
+        <v>9161</v>
       </c>
       <c r="GV1" s="0" t="s">
-        <v>7054</v>
+        <v>9162</v>
       </c>
       <c r="GW1" s="0" t="s">
-        <v>7055</v>
+        <v>9163</v>
       </c>
       <c r="GX1" s="0" t="s">
-        <v>7056</v>
+        <v>9164</v>
       </c>
       <c r="GY1" s="0" t="s">
-        <v>7057</v>
+        <v>9165</v>
       </c>
       <c r="GZ1" s="0" t="s">
-        <v>7058</v>
+        <v>9166</v>
       </c>
       <c r="HA1" s="0" t="s">
-        <v>7059</v>
+        <v>9167</v>
       </c>
       <c r="HB1" s="0" t="s">
-        <v>7060</v>
+        <v>9168</v>
       </c>
       <c r="HC1" s="0" t="s">
-        <v>7061</v>
+        <v>9169</v>
       </c>
       <c r="HD1" s="0" t="s">
-        <v>7062</v>
+        <v>9170</v>
       </c>
       <c r="HE1" s="0" t="s">
-        <v>7063</v>
+        <v>9171</v>
       </c>
       <c r="HF1" s="0" t="s">
-        <v>7064</v>
+        <v>9172</v>
       </c>
       <c r="HG1" s="0" t="s">
-        <v>7065</v>
+        <v>9173</v>
       </c>
       <c r="HH1" s="0" t="s">
-        <v>7066</v>
+        <v>9174</v>
       </c>
       <c r="HI1" s="0" t="s">
-        <v>7067</v>
+        <v>9175</v>
       </c>
       <c r="HJ1" s="0" t="s">
-        <v>7068</v>
+        <v>9176</v>
       </c>
       <c r="HK1" s="0" t="s">
-        <v>7069</v>
+        <v>9177</v>
       </c>
       <c r="HL1" s="0" t="s">
-        <v>7070</v>
+        <v>9178</v>
       </c>
       <c r="HM1" s="0" t="s">
-        <v>7071</v>
+        <v>9179</v>
       </c>
       <c r="HN1" s="0" t="s">
-        <v>7072</v>
+        <v>9180</v>
       </c>
       <c r="HO1" s="0" t="s">
-        <v>7073</v>
+        <v>9181</v>
       </c>
       <c r="HP1" s="0" t="s">
-        <v>7074</v>
+        <v>9182</v>
       </c>
       <c r="HQ1" s="0" t="s">
-        <v>7075</v>
+        <v>9183</v>
       </c>
       <c r="HR1" s="0" t="s">
-        <v>7076</v>
+        <v>9184</v>
       </c>
       <c r="HS1" s="0" t="s">
-        <v>7077</v>
+        <v>9185</v>
       </c>
       <c r="HT1" s="0" t="s">
-        <v>7078</v>
+        <v>9186</v>
       </c>
       <c r="HU1" s="0" t="s">
-        <v>7079</v>
+        <v>9187</v>
       </c>
       <c r="HV1" s="0" t="s">
-        <v>7080</v>
+        <v>9188</v>
       </c>
       <c r="HW1" s="0" t="s">
-        <v>7081</v>
+        <v>9189</v>
       </c>
       <c r="HX1" s="0" t="s">
-        <v>7082</v>
+        <v>9190</v>
       </c>
       <c r="HY1" s="0" t="s">
-        <v>7083</v>
+        <v>9191</v>
       </c>
       <c r="HZ1" s="0" t="s">
-        <v>7084</v>
+        <v>9192</v>
       </c>
       <c r="IA1" s="0" t="s">
-        <v>7085</v>
+        <v>9193</v>
       </c>
       <c r="IB1" s="0" t="s">
-        <v>7086</v>
+        <v>9194</v>
       </c>
       <c r="IC1" s="0" t="s">
-        <v>7087</v>
+        <v>9195</v>
       </c>
       <c r="ID1" s="0" t="s">
-        <v>7088</v>
+        <v>9196</v>
       </c>
       <c r="IE1" s="0" t="s">
-        <v>7089</v>
+        <v>9197</v>
       </c>
       <c r="IF1" s="0" t="s">
-        <v>7090</v>
+        <v>9198</v>
       </c>
       <c r="IG1" s="0" t="s">
-        <v>7091</v>
+        <v>9199</v>
       </c>
       <c r="IH1" s="0" t="s">
-        <v>7092</v>
+        <v>9200</v>
       </c>
       <c r="II1" s="0" t="s">
-        <v>7093</v>
+        <v>9201</v>
       </c>
       <c r="IJ1" s="0" t="s">
-        <v>7094</v>
+        <v>9202</v>
       </c>
       <c r="IK1" s="0" t="s">
-        <v>7095</v>
+        <v>9203</v>
       </c>
       <c r="IL1" s="0" t="s">
-        <v>7096</v>
+        <v>9204</v>
       </c>
       <c r="IM1" s="0" t="s">
-        <v>7097</v>
+        <v>9205</v>
       </c>
       <c r="IN1" s="0" t="s">
-        <v>7098</v>
+        <v>9206</v>
       </c>
       <c r="IO1" s="0" t="s">
-        <v>7099</v>
+        <v>9207</v>
       </c>
       <c r="IP1" s="0" t="s">
-        <v>7100</v>
+        <v>9208</v>
       </c>
       <c r="IQ1" s="0" t="s">
-        <v>7101</v>
+        <v>9209</v>
       </c>
       <c r="IR1" s="0" t="s">
-        <v>7102</v>
+        <v>9210</v>
       </c>
       <c r="IS1" s="0" t="s">
-        <v>7103</v>
+        <v>9211</v>
       </c>
       <c r="IT1" s="0" t="s">
-        <v>7104</v>
+        <v>9212</v>
       </c>
       <c r="IU1" s="0" t="s">
-        <v>7105</v>
+        <v>9213</v>
       </c>
       <c r="IV1" s="0" t="s">
-        <v>7106</v>
+        <v>9214</v>
       </c>
       <c r="IW1" s="0" t="s">
-        <v>7107</v>
+        <v>9215</v>
       </c>
       <c r="IX1" s="0" t="s">
-        <v>7108</v>
+        <v>9216</v>
       </c>
       <c r="IY1" s="0" t="s">
-        <v>7109</v>
+        <v>9217</v>
       </c>
       <c r="IZ1" s="0" t="s">
-        <v>7110</v>
+        <v>9218</v>
       </c>
       <c r="JA1" s="0" t="s">
-        <v>7111</v>
+        <v>9219</v>
       </c>
       <c r="JB1" s="0" t="s">
-        <v>7112</v>
+        <v>9220</v>
       </c>
       <c r="JC1" s="0" t="s">
-        <v>7113</v>
+        <v>9221</v>
       </c>
       <c r="JD1" s="0" t="s">
-        <v>7114</v>
+        <v>9222</v>
       </c>
       <c r="JE1" s="0" t="s">
-        <v>7115</v>
+        <v>9223</v>
       </c>
       <c r="JF1" s="0" t="s">
-        <v>7116</v>
+        <v>9224</v>
       </c>
       <c r="JG1" s="0" t="s">
-        <v>7117</v>
+        <v>9225</v>
       </c>
       <c r="JH1" s="0" t="s">
-        <v>7118</v>
+        <v>9226</v>
       </c>
       <c r="JI1" s="0" t="s">
-        <v>7119</v>
+        <v>9227</v>
       </c>
       <c r="JJ1" s="0" t="s">
-        <v>7120</v>
+        <v>9228</v>
       </c>
       <c r="JK1" s="0" t="s">
-        <v>7121</v>
+        <v>9229</v>
       </c>
       <c r="JL1" s="0" t="s">
-        <v>7122</v>
+        <v>9230</v>
       </c>
       <c r="JM1" s="0" t="s">
-        <v>7123</v>
+        <v>9231</v>
       </c>
       <c r="JN1" s="0" t="s">
-        <v>7124</v>
+        <v>9232</v>
       </c>
       <c r="JO1" s="0" t="s">
-        <v>7125</v>
+        <v>9233</v>
       </c>
       <c r="JP1" s="0" t="s">
-        <v>7126</v>
+        <v>9234</v>
       </c>
       <c r="JQ1" s="0" t="s">
-        <v>7127</v>
+        <v>9235</v>
       </c>
       <c r="JR1" s="0" t="s">
-        <v>7128</v>
+        <v>9236</v>
       </c>
       <c r="JS1" s="0" t="s">
-        <v>7129</v>
+        <v>9237</v>
       </c>
       <c r="JT1" s="0" t="s">
-        <v>7130</v>
+        <v>9238</v>
       </c>
       <c r="JU1" s="0" t="s">
-        <v>7131</v>
+        <v>9239</v>
       </c>
       <c r="JV1" s="0" t="s">
-        <v>7132</v>
+        <v>9240</v>
       </c>
       <c r="JW1" s="0" t="s">
-        <v>7133</v>
+        <v>9241</v>
       </c>
       <c r="JX1" s="0" t="s">
-        <v>7134</v>
+        <v>9242</v>
       </c>
       <c r="JY1" s="0" t="s">
-        <v>7135</v>
+        <v>9243</v>
       </c>
       <c r="JZ1" s="0" t="s">
-        <v>7136</v>
+        <v>9244</v>
       </c>
       <c r="KA1" s="0" t="s">
-        <v>7137</v>
+        <v>9245</v>
       </c>
       <c r="KB1" s="0" t="s">
-        <v>7138</v>
+        <v>9246</v>
       </c>
       <c r="KC1" s="0" t="s">
-        <v>7139</v>
+        <v>9247</v>
       </c>
       <c r="KD1" s="0" t="s">
-        <v>7140</v>
+        <v>9248</v>
       </c>
       <c r="KE1" s="0" t="s">
-        <v>7141</v>
+        <v>9249</v>
       </c>
       <c r="KF1" s="0" t="s">
-        <v>7142</v>
+        <v>9250</v>
       </c>
       <c r="KG1" s="0" t="s">
-        <v>7143</v>
+        <v>9251</v>
       </c>
       <c r="KH1" s="0" t="s">
-        <v>7144</v>
+        <v>9252</v>
       </c>
       <c r="KI1" s="0" t="s">
-        <v>7145</v>
+        <v>9253</v>
       </c>
       <c r="KJ1" s="0" t="s">
-        <v>7146</v>
+        <v>9254</v>
       </c>
       <c r="KK1" s="0" t="s">
-        <v>7147</v>
+        <v>9255</v>
       </c>
       <c r="KL1" s="0" t="s">
-        <v>7148</v>
+        <v>9256</v>
       </c>
       <c r="KM1" s="0" t="s">
-        <v>7149</v>
+        <v>9257</v>
       </c>
       <c r="KN1" s="0" t="s">
-        <v>7150</v>
+        <v>9258</v>
       </c>
       <c r="KO1" s="0" t="s">
-        <v>7151</v>
+        <v>9259</v>
       </c>
       <c r="KP1" s="0" t="s">
-        <v>7152</v>
+        <v>9260</v>
       </c>
       <c r="KQ1" s="0" t="s">
-        <v>7153</v>
+        <v>9261</v>
       </c>
       <c r="KR1" s="0" t="s">
-        <v>7154</v>
+        <v>9262</v>
       </c>
       <c r="KS1" s="0" t="s">
-        <v>7155</v>
+        <v>9263</v>
       </c>
       <c r="KT1" s="0" t="s">
-        <v>7156</v>
+        <v>9264</v>
       </c>
       <c r="KU1" s="0" t="s">
-        <v>7157</v>
+        <v>9265</v>
       </c>
       <c r="KV1" s="0" t="s">
-        <v>7158</v>
+        <v>9266</v>
       </c>
       <c r="KW1" s="0" t="s">
-        <v>7159</v>
+        <v>9267</v>
       </c>
       <c r="KX1" s="0" t="s">
-        <v>7160</v>
+        <v>9268</v>
       </c>
       <c r="KY1" s="0" t="s">
-        <v>7161</v>
+        <v>9269</v>
       </c>
       <c r="KZ1" s="0" t="s">
-        <v>7162</v>
+        <v>9270</v>
       </c>
       <c r="LA1" s="0" t="s">
-        <v>7163</v>
+        <v>9271</v>
       </c>
       <c r="LB1" s="0" t="s">
-        <v>7164</v>
+        <v>9272</v>
       </c>
       <c r="LC1" s="0" t="s">
-        <v>7165</v>
+        <v>9273</v>
       </c>
       <c r="LD1" s="0" t="s">
-        <v>7166</v>
+        <v>9274</v>
       </c>
       <c r="LE1" s="0" t="s">
-        <v>7167</v>
+        <v>9275</v>
       </c>
       <c r="LF1" s="0" t="s">
-        <v>7168</v>
+        <v>9276</v>
       </c>
       <c r="LG1" s="0" t="s">
-        <v>7169</v>
+        <v>9277</v>
       </c>
       <c r="LH1" s="0" t="s">
-        <v>7170</v>
+        <v>9278</v>
       </c>
       <c r="LI1" s="0" t="s">
-        <v>7171</v>
+        <v>9279</v>
       </c>
       <c r="LJ1" s="0" t="s">
-        <v>7172</v>
+        <v>9280</v>
       </c>
       <c r="LK1" s="0" t="s">
-        <v>7173</v>
+        <v>9281</v>
       </c>
       <c r="LL1" s="0" t="s">
-        <v>7174</v>
+        <v>9282</v>
       </c>
       <c r="LM1" s="0" t="s">
-        <v>7175</v>
+        <v>9283</v>
       </c>
       <c r="LN1" s="0" t="s">
-        <v>7176</v>
+        <v>9284</v>
       </c>
       <c r="LO1" s="0" t="s">
-        <v>7177</v>
+        <v>9285</v>
       </c>
       <c r="LP1" s="0" t="s">
-        <v>7178</v>
+        <v>9286</v>
       </c>
       <c r="LQ1" s="0" t="s">
-        <v>7179</v>
+        <v>9287</v>
       </c>
       <c r="LR1" s="0" t="s">
-        <v>7180</v>
+        <v>9288</v>
       </c>
       <c r="LS1" s="0" t="s">
-        <v>7181</v>
+        <v>9289</v>
       </c>
       <c r="LT1" s="0" t="s">
-        <v>7182</v>
+        <v>9290</v>
       </c>
       <c r="LU1" s="0" t="s">
-        <v>7183</v>
+        <v>9291</v>
       </c>
       <c r="LV1" s="0" t="s">
-        <v>7184</v>
+        <v>9292</v>
       </c>
       <c r="LW1" s="0" t="s">
-        <v>7185</v>
+        <v>9293</v>
       </c>
       <c r="LX1" s="0" t="s">
-        <v>7186</v>
+        <v>9294</v>
       </c>
       <c r="LY1" s="0" t="s">
-        <v>7187</v>
+        <v>9295</v>
       </c>
       <c r="LZ1" s="0" t="s">
-        <v>7188</v>
+        <v>9296</v>
       </c>
       <c r="MA1" s="0" t="s">
-        <v>7189</v>
+        <v>9297</v>
       </c>
       <c r="MB1" s="0" t="s">
-        <v>7190</v>
+        <v>9298</v>
       </c>
       <c r="MC1" s="0" t="s">
-        <v>7191</v>
+        <v>9299</v>
       </c>
       <c r="MD1" s="0" t="s">
-        <v>7192</v>
+        <v>9300</v>
       </c>
       <c r="ME1" s="0" t="s">
-        <v>7193</v>
+        <v>9301</v>
       </c>
       <c r="MF1" s="0" t="s">
-        <v>7194</v>
+        <v>9302</v>
       </c>
       <c r="MG1" s="0" t="s">
-        <v>7195</v>
+        <v>9303</v>
       </c>
       <c r="MH1" s="0" t="s">
-        <v>7196</v>
+        <v>9304</v>
       </c>
       <c r="MI1" s="0" t="s">
-        <v>7197</v>
+        <v>9305</v>
       </c>
       <c r="MJ1" s="0" t="s">
-        <v>7198</v>
+        <v>9306</v>
       </c>
       <c r="MK1" s="0" t="s">
-        <v>7199</v>
+        <v>9307</v>
       </c>
       <c r="ML1" s="0" t="s">
-        <v>7200</v>
+        <v>9308</v>
       </c>
       <c r="MM1" s="0" t="s">
-        <v>7201</v>
+        <v>9309</v>
       </c>
       <c r="MN1" s="0" t="s">
-        <v>7202</v>
+        <v>9310</v>
       </c>
       <c r="MO1" s="0" t="s">
-        <v>7203</v>
+        <v>9311</v>
       </c>
       <c r="MP1" s="0" t="s">
-        <v>7204</v>
+        <v>9312</v>
       </c>
       <c r="MQ1" s="0" t="s">
-        <v>7205</v>
+        <v>9313</v>
       </c>
       <c r="MR1" s="0" t="s">
-        <v>7206</v>
+        <v>9314</v>
       </c>
       <c r="MS1" s="0" t="s">
-        <v>7207</v>
+        <v>9315</v>
       </c>
       <c r="MT1" s="0" t="s">
-        <v>7208</v>
+        <v>9316</v>
       </c>
       <c r="MU1" s="0" t="s">
-        <v>7209</v>
+        <v>9317</v>
       </c>
       <c r="MV1" s="0" t="s">
-        <v>7210</v>
+        <v>9318</v>
       </c>
       <c r="MW1" s="0" t="s">
-        <v>7211</v>
+        <v>9319</v>
       </c>
       <c r="MX1" s="0" t="s">
-        <v>7212</v>
+        <v>9320</v>
       </c>
       <c r="MY1" s="0" t="s">
-        <v>7213</v>
+        <v>9321</v>
       </c>
       <c r="MZ1" s="0" t="s">
-        <v>7214</v>
+        <v>9322</v>
       </c>
       <c r="NA1" s="0" t="s">
-        <v>7215</v>
+        <v>9323</v>
       </c>
       <c r="NB1" s="0" t="s">
-        <v>7216</v>
+        <v>9324</v>
       </c>
       <c r="NC1" s="0" t="s">
-        <v>7217</v>
+        <v>9325</v>
       </c>
       <c r="ND1" s="0" t="s">
-        <v>7218</v>
+        <v>9326</v>
       </c>
       <c r="NE1" s="0" t="s">
-        <v>7219</v>
+        <v>9327</v>
       </c>
       <c r="NF1" s="0" t="s">
-        <v>7220</v>
+        <v>9328</v>
       </c>
       <c r="NG1" s="0" t="s">
-        <v>7221</v>
+        <v>9329</v>
       </c>
       <c r="NH1" s="0" t="s">
-        <v>7222</v>
+        <v>9330</v>
       </c>
       <c r="NI1" s="0" t="s">
-        <v>7223</v>
+        <v>9331</v>
       </c>
       <c r="NJ1" s="0" t="s">
-        <v>7224</v>
+        <v>9332</v>
       </c>
       <c r="NK1" s="0" t="s">
-        <v>7225</v>
+        <v>9333</v>
       </c>
       <c r="NL1" s="0" t="s">
-        <v>7226</v>
+        <v>9334</v>
       </c>
       <c r="NM1" s="0" t="s">
-        <v>7227</v>
+        <v>9335</v>
       </c>
       <c r="NN1" s="0" t="s">
-        <v>7228</v>
+        <v>9336</v>
       </c>
       <c r="NO1" s="0" t="s">
-        <v>7229</v>
+        <v>9337</v>
       </c>
       <c r="NP1" s="0" t="s">
-        <v>7230</v>
+        <v>9338</v>
       </c>
       <c r="NQ1" s="0" t="s">
-        <v>7231</v>
+        <v>9339</v>
       </c>
       <c r="NR1" s="0" t="s">
-        <v>7232</v>
+        <v>9340</v>
       </c>
       <c r="NS1" s="0" t="s">
-        <v>7233</v>
+        <v>9341</v>
       </c>
       <c r="NT1" s="0" t="s">
-        <v>7234</v>
+        <v>9342</v>
       </c>
       <c r="NU1" s="0" t="s">
-        <v>7235</v>
+        <v>9343</v>
       </c>
       <c r="NV1" s="0" t="s">
-        <v>7236</v>
+        <v>9344</v>
       </c>
       <c r="NW1" s="0" t="s">
-        <v>7237</v>
+        <v>9345</v>
       </c>
       <c r="NX1" s="0" t="s">
-        <v>7238</v>
+        <v>9346</v>
       </c>
       <c r="NY1" s="0" t="s">
-        <v>7239</v>
+        <v>9347</v>
       </c>
       <c r="NZ1" s="0" t="s">
-        <v>7240</v>
+        <v>9348</v>
       </c>
       <c r="OA1" s="0" t="s">
-        <v>7241</v>
+        <v>9349</v>
       </c>
       <c r="OB1" s="0" t="s">
-        <v>7242</v>
+        <v>9350</v>
       </c>
       <c r="OC1" s="0" t="s">
-        <v>7243</v>
+        <v>9351</v>
       </c>
       <c r="OD1" s="0" t="s">
-        <v>7244</v>
+        <v>9352</v>
       </c>
       <c r="OE1" s="0" t="s">
-        <v>7245</v>
+        <v>9353</v>
       </c>
       <c r="OF1" s="0" t="s">
-        <v>7246</v>
+        <v>9354</v>
       </c>
       <c r="OG1" s="0" t="s">
-        <v>7247</v>
+        <v>9355</v>
       </c>
       <c r="OH1" s="0" t="s">
-        <v>7248</v>
+        <v>9356</v>
       </c>
       <c r="OI1" s="0" t="s">
-        <v>7249</v>
+        <v>9357</v>
       </c>
       <c r="OJ1" s="0" t="s">
-        <v>7250</v>
+        <v>9358</v>
       </c>
       <c r="OK1" s="0" t="s">
-        <v>7251</v>
+        <v>9359</v>
       </c>
       <c r="OL1" s="0" t="s">
-        <v>7252</v>
+        <v>9360</v>
       </c>
       <c r="OM1" s="0" t="s">
-        <v>7253</v>
+        <v>9361</v>
       </c>
       <c r="ON1" s="0" t="s">
-        <v>7254</v>
+        <v>9362</v>
       </c>
       <c r="OO1" s="0" t="s">
-        <v>7255</v>
+        <v>9363</v>
       </c>
       <c r="OP1" s="0" t="s">
-        <v>7256</v>
+        <v>9364</v>
       </c>
       <c r="OQ1" s="0" t="s">
-        <v>7257</v>
+        <v>9365</v>
       </c>
       <c r="OR1" s="0" t="s">
-        <v>7258</v>
+        <v>9366</v>
       </c>
       <c r="OS1" s="0" t="s">
-        <v>7259</v>
+        <v>9367</v>
       </c>
       <c r="OT1" s="0" t="s">
-        <v>7260</v>
+        <v>9368</v>
       </c>
       <c r="OU1" s="0" t="s">
-        <v>7261</v>
+        <v>9369</v>
       </c>
       <c r="OV1" s="0" t="s">
-        <v>7262</v>
+        <v>9370</v>
       </c>
       <c r="OW1" s="0" t="s">
-        <v>7263</v>
+        <v>9371</v>
       </c>
       <c r="OX1" s="0" t="s">
-        <v>7264</v>
+        <v>9372</v>
       </c>
       <c r="OY1" s="0" t="s">
-        <v>7265</v>
+        <v>9373</v>
       </c>
       <c r="OZ1" s="0" t="s">
-        <v>7266</v>
+        <v>9374</v>
       </c>
       <c r="PA1" s="0" t="s">
-        <v>7267</v>
+        <v>9375</v>
       </c>
       <c r="PB1" s="0" t="s">
-        <v>7268</v>
+        <v>9376</v>
       </c>
       <c r="PC1" s="0" t="s">
-        <v>7269</v>
+        <v>9377</v>
       </c>
       <c r="PD1" s="0" t="s">
-        <v>7270</v>
+        <v>9378</v>
       </c>
       <c r="PE1" s="0" t="s">
-        <v>7271</v>
+        <v>9379</v>
       </c>
       <c r="PF1" s="0" t="s">
-        <v>7272</v>
+        <v>9380</v>
       </c>
       <c r="PG1" s="0" t="s">
-        <v>7273</v>
+        <v>9381</v>
       </c>
       <c r="PH1" s="0" t="s">
-        <v>7274</v>
+        <v>9382</v>
       </c>
       <c r="PI1" s="0" t="s">
-        <v>7275</v>
+        <v>9383</v>
       </c>
       <c r="PJ1" s="0" t="s">
-        <v>7276</v>
+        <v>9384</v>
       </c>
       <c r="PK1" s="0" t="s">
-        <v>7277</v>
+        <v>9385</v>
       </c>
       <c r="PL1" s="0" t="s">
-        <v>7278</v>
+        <v>9386</v>
       </c>
       <c r="PM1" s="0" t="s">
-        <v>7279</v>
+        <v>9387</v>
       </c>
       <c r="PN1" s="0" t="s">
-        <v>7280</v>
+        <v>9388</v>
       </c>
       <c r="PO1" s="0" t="s">
-        <v>7281</v>
+        <v>9389</v>
       </c>
       <c r="PP1" s="0" t="s">
-        <v>7282</v>
+        <v>9390</v>
       </c>
       <c r="PQ1" s="0" t="s">
-        <v>7283</v>
+        <v>9391</v>
       </c>
       <c r="PR1" s="0" t="s">
-        <v>7284</v>
+        <v>9392</v>
       </c>
       <c r="PS1" s="0" t="s">
-        <v>7285</v>
+        <v>9393</v>
       </c>
       <c r="PT1" s="0" t="s">
-        <v>7286</v>
+        <v>9394</v>
       </c>
       <c r="PU1" s="0" t="s">
-        <v>7287</v>
+        <v>9395</v>
       </c>
       <c r="PV1" s="0" t="s">
-        <v>7288</v>
+        <v>9396</v>
       </c>
       <c r="PW1" s="0" t="s">
-        <v>7289</v>
+        <v>9397</v>
       </c>
       <c r="PX1" s="0" t="s">
-        <v>7290</v>
+        <v>9398</v>
       </c>
       <c r="PY1" s="0" t="s">
-        <v>7291</v>
+        <v>9399</v>
       </c>
       <c r="PZ1" s="0" t="s">
-        <v>7292</v>
+        <v>9400</v>
       </c>
       <c r="QA1" s="0" t="s">
-        <v>7293</v>
+        <v>9401</v>
       </c>
       <c r="QB1" s="0" t="s">
-        <v>7294</v>
+        <v>9402</v>
       </c>
       <c r="QC1" s="0" t="s">
-        <v>7295</v>
+        <v>9403</v>
       </c>
       <c r="QD1" s="0" t="s">
-        <v>7296</v>
+        <v>9404</v>
       </c>
       <c r="QE1" s="0" t="s">
-        <v>7297</v>
+        <v>9405</v>
       </c>
       <c r="QF1" s="0" t="s">
-        <v>7298</v>
+        <v>9406</v>
       </c>
       <c r="QG1" s="0" t="s">
-        <v>7299</v>
+        <v>9407</v>
       </c>
       <c r="QH1" s="0" t="s">
-        <v>7300</v>
+        <v>9408</v>
       </c>
       <c r="QI1" s="0" t="s">
-        <v>7301</v>
+        <v>9409</v>
       </c>
       <c r="QJ1" s="0" t="s">
-        <v>7302</v>
+        <v>9410</v>
       </c>
       <c r="QK1" s="0" t="s">
-        <v>7303</v>
+        <v>9411</v>
       </c>
       <c r="QL1" s="0" t="s">
-        <v>7304</v>
+        <v>9412</v>
       </c>
       <c r="QM1" s="0" t="s">
-        <v>7305</v>
+        <v>9413</v>
       </c>
       <c r="QN1" s="0" t="s">
-        <v>7306</v>
+        <v>9414</v>
       </c>
       <c r="QO1" s="0" t="s">
-        <v>7307</v>
+        <v>9415</v>
       </c>
       <c r="QP1" s="0" t="s">
-        <v>7308</v>
+        <v>9416</v>
       </c>
       <c r="QQ1" s="0" t="s">
-        <v>7309</v>
+        <v>9417</v>
       </c>
       <c r="QR1" s="0" t="s">
-        <v>7310</v>
+        <v>9418</v>
       </c>
       <c r="QS1" s="0" t="s">
-        <v>7311</v>
+        <v>9419</v>
       </c>
       <c r="QT1" s="0" t="s">
-        <v>7312</v>
+        <v>9420</v>
       </c>
       <c r="QU1" s="0" t="s">
-        <v>7313</v>
+        <v>9421</v>
       </c>
       <c r="QV1" s="0" t="s">
-        <v>7314</v>
+        <v>9422</v>
       </c>
       <c r="QW1" s="0" t="s">
-        <v>7315</v>
+        <v>9423</v>
       </c>
       <c r="QX1" s="0" t="s">
-        <v>7316</v>
+        <v>9424</v>
       </c>
       <c r="QY1" s="0" t="s">
-        <v>7317</v>
+        <v>9425</v>
       </c>
       <c r="QZ1" s="0" t="s">
-        <v>7318</v>
+        <v>9426</v>
       </c>
       <c r="RA1" s="0" t="s">
-        <v>7319</v>
+        <v>9427</v>
       </c>
       <c r="RB1" s="0" t="s">
-        <v>7320</v>
+        <v>9428</v>
       </c>
       <c r="RC1" s="0" t="s">
-        <v>7321</v>
+        <v>9429</v>
       </c>
       <c r="RD1" s="0" t="s">
-        <v>7322</v>
+        <v>9430</v>
       </c>
       <c r="RE1" s="0" t="s">
-        <v>7323</v>
+        <v>9431</v>
       </c>
       <c r="RF1" s="0" t="s">
-        <v>7324</v>
+        <v>9432</v>
       </c>
       <c r="RG1" s="0" t="s">
-        <v>7325</v>
+        <v>9433</v>
       </c>
       <c r="RH1" s="0" t="s">
-        <v>7326</v>
+        <v>9434</v>
       </c>
       <c r="RI1" s="0" t="s">
-        <v>7327</v>
+        <v>9435</v>
       </c>
       <c r="RJ1" s="0" t="s">
-        <v>7328</v>
+        <v>9436</v>
       </c>
       <c r="RK1" s="0" t="s">
-        <v>7329</v>
+        <v>9437</v>
       </c>
       <c r="RL1" s="0" t="s">
-        <v>7330</v>
+        <v>9438</v>
       </c>
       <c r="RM1" s="0" t="s">
-        <v>7331</v>
+        <v>9439</v>
       </c>
       <c r="RN1" s="0" t="s">
-        <v>7332</v>
+        <v>9440</v>
       </c>
       <c r="RO1" s="0" t="s">
-        <v>7333</v>
+        <v>9441</v>
       </c>
       <c r="RP1" s="0" t="s">
-        <v>7334</v>
+        <v>9442</v>
       </c>
       <c r="RQ1" s="0" t="s">
-        <v>7335</v>
+        <v>9443</v>
       </c>
       <c r="RR1" s="0" t="s">
-        <v>7336</v>
+        <v>9444</v>
       </c>
       <c r="RS1" s="0" t="s">
-        <v>7337</v>
+        <v>9445</v>
       </c>
       <c r="RT1" s="0" t="s">
-        <v>7338</v>
+        <v>9446</v>
       </c>
       <c r="RU1" s="0" t="s">
-        <v>7339</v>
+        <v>9447</v>
       </c>
       <c r="RV1" s="0" t="s">
-        <v>7340</v>
+        <v>9448</v>
       </c>
       <c r="RW1" s="0" t="s">
-        <v>7341</v>
+        <v>9449</v>
       </c>
       <c r="RX1" s="0" t="s">
-        <v>7342</v>
+        <v>9450</v>
       </c>
       <c r="RY1" s="0" t="s">
-        <v>7343</v>
+        <v>9451</v>
       </c>
       <c r="RZ1" s="0" t="s">
-        <v>7344</v>
+        <v>9452</v>
       </c>
       <c r="SA1" s="0" t="s">
-        <v>7345</v>
+        <v>9453</v>
       </c>
       <c r="SB1" s="0" t="s">
-        <v>7346</v>
+        <v>9454</v>
       </c>
       <c r="SC1" s="0" t="s">
-        <v>7347</v>
+        <v>9455</v>
       </c>
       <c r="SD1" s="0" t="s">
-        <v>7348</v>
+        <v>9456</v>
       </c>
       <c r="SE1" s="0" t="s">
-        <v>7349</v>
+        <v>9457</v>
       </c>
       <c r="SF1" s="0" t="s">
-        <v>7350</v>
+        <v>9458</v>
       </c>
       <c r="SG1" s="0" t="s">
-        <v>7351</v>
+        <v>9459</v>
       </c>
       <c r="SH1" s="0" t="s">
-        <v>7352</v>
+        <v>9460</v>
       </c>
       <c r="SI1" s="0" t="s">
-        <v>7353</v>
+        <v>9461</v>
       </c>
       <c r="SJ1" s="0" t="s">
-        <v>7354</v>
+        <v>9462</v>
       </c>
       <c r="SK1" s="0" t="s">
-        <v>7355</v>
+        <v>9463</v>
       </c>
       <c r="SL1" s="0" t="s">
-        <v>7356</v>
+        <v>9464</v>
       </c>
       <c r="SM1" s="0" t="s">
-        <v>7357</v>
+        <v>9465</v>
       </c>
       <c r="SN1" s="0" t="s">
-        <v>7358</v>
+        <v>9466</v>
       </c>
       <c r="SO1" s="0" t="s">
-        <v>7359</v>
+        <v>9467</v>
       </c>
       <c r="SP1" s="0" t="s">
-        <v>7360</v>
+        <v>9468</v>
       </c>
       <c r="SQ1" s="0" t="s">
-        <v>7361</v>
+        <v>9469</v>
       </c>
       <c r="SR1" s="0" t="s">
-        <v>7362</v>
+        <v>9470</v>
       </c>
       <c r="SS1" s="0" t="s">
-        <v>7363</v>
+        <v>9471</v>
       </c>
     </row>
     <row r="2">
@@ -25815,7 +32147,7 @@
         <v>0.0017182849414548781</v>
       </c>
       <c r="SS2" s="0" t="s">
-        <v>7364</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="3">
@@ -27356,7 +33688,7 @@
         <v>0.083081996346907064</v>
       </c>
       <c r="SS3" s="0" t="s">
-        <v>7365</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="4">
@@ -28897,7 +35229,7 @@
         <v>1.3037015881842586e-05</v>
       </c>
       <c r="SS4" s="0" t="s">
-        <v>7365</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="5">
@@ -30438,7 +36770,7 @@
         <v>0.071605245360496533</v>
       </c>
       <c r="SS5" s="0" t="s">
-        <v>7366</v>
+        <v>9474</v>
       </c>
     </row>
     <row r="6">
@@ -31979,7 +38311,7 @@
         <v>0.30676712762187575</v>
       </c>
       <c r="SS6" s="0" t="s">
-        <v>7366</v>
+        <v>9474</v>
       </c>
     </row>
     <row r="7">
@@ -33520,7 +39852,7 @@
         <v>0.013127508822408578</v>
       </c>
       <c r="SS7" s="0" t="s">
-        <v>7367</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="8">
@@ -35061,7 +41393,7 @@
         <v>0.19266718006205874</v>
       </c>
       <c r="SS8" s="0" t="s">
-        <v>7367</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="9">
@@ -36602,7 +42934,7 @@
         <v>0.015991944786008957</v>
       </c>
       <c r="SS9" s="0" t="s">
-        <v>7367</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="10">
@@ -38143,7 +44475,7 @@
         <v>0</v>
       </c>
       <c r="SS10" s="0" t="s">
-        <v>7367</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="11">
@@ -39684,7 +46016,7 @@
         <v>0</v>
       </c>
       <c r="SS11" s="0" t="s">
-        <v>7368</v>
+        <v>9476</v>
       </c>
     </row>
     <row r="12">
@@ -41225,7 +47557,7 @@
         <v>0.012854855152174769</v>
       </c>
       <c r="SS12" s="0" t="s">
-        <v>7369</v>
+        <v>9477</v>
       </c>
     </row>
     <row r="13">
@@ -42766,7 +49098,7 @@
         <v>0.00020231576132515882</v>
       </c>
       <c r="SS13" s="0" t="s">
-        <v>7370</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="14">
@@ -44307,7 +50639,7 @@
         <v>0.016711218382466395</v>
       </c>
       <c r="SS14" s="0" t="s">
-        <v>7370</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="15">
@@ -45848,7 +52180,7 @@
         <v>0.0030857264593178741</v>
       </c>
       <c r="SS15" s="0" t="s">
-        <v>7371</v>
+        <v>9479</v>
       </c>
     </row>
     <row r="16">
@@ -47389,7 +53721,7 @@
         <v>0.11689250088670773</v>
       </c>
       <c r="SS16" s="0" t="s">
-        <v>7372</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="17">
@@ -48930,7 +55262,7 @@
         <v>0.00024221293437175681</v>
       </c>
       <c r="SS17" s="0" t="s">
-        <v>7373</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="18">
@@ -50471,7 +56803,7 @@
         <v>0</v>
       </c>
       <c r="SS18" s="0" t="s">
-        <v>7374</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="19">
@@ -52012,7 +58344,7 @@
         <v>0</v>
       </c>
       <c r="SS19" s="0" t="s">
-        <v>7375</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="20">
@@ -53553,7 +59885,7 @@
         <v>0.012319180470045186</v>
       </c>
       <c r="SS20" s="0" t="s">
-        <v>7376</v>
+        <v>9484</v>
       </c>
     </row>
     <row r="21">
@@ -55094,7 +61426,7 @@
         <v>0.0045937090735430168</v>
       </c>
       <c r="SS21" s="0" t="s">
-        <v>7377</v>
+        <v>9485</v>
       </c>
     </row>
   </sheetData>
